--- a/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.965735866846416</v>
+        <v>1.965735866846529</v>
       </c>
       <c r="C2">
         <v>0.8693905661980352</v>
       </c>
       <c r="D2">
-        <v>0.03816415678505791</v>
+        <v>0.0381641567851787</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.479328525176101</v>
+        <v>2.479328525176072</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.373716668338275</v>
+        <v>1.373716668338261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.697447347513702</v>
+        <v>1.697447347513503</v>
       </c>
       <c r="C3">
-        <v>0.7490780150834553</v>
+        <v>0.749078015083569</v>
       </c>
       <c r="D3">
-        <v>0.03616564146479817</v>
+        <v>0.0361656414645779</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.180250966576565</v>
+        <v>2.180250966576551</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.385982697002746</v>
+        <v>2.385982697002717</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.534611070341697</v>
+        <v>1.534611070341413</v>
       </c>
       <c r="C4">
-        <v>0.6763468632630349</v>
+        <v>0.6763468632632339</v>
       </c>
       <c r="D4">
-        <v>0.03504260093340505</v>
+        <v>0.0350426009335294</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.002368898287827</v>
+        <v>2.002368898287855</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.142648893073854</v>
+        <v>1.142648893073869</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.134347759857761</v>
+        <v>2.134347759857732</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.468647061589309</v>
+        <v>1.468647061589337</v>
       </c>
       <c r="C5">
-        <v>0.64694580113337</v>
+        <v>0.6469458011331426</v>
       </c>
       <c r="D5">
-        <v>0.03460760538650121</v>
+        <v>0.03460760538628449</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.108382667792597</v>
+        <v>1.108382667792583</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.03401583688894</v>
+        <v>2.034015836888969</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>1.457715239390126</v>
       </c>
       <c r="C6">
-        <v>0.6420767647496177</v>
+        <v>0.6420767647494188</v>
       </c>
       <c r="D6">
-        <v>0.03453664857805805</v>
+        <v>0.03453664857794791</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.919379737998725</v>
+        <v>1.91937973799871</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.102733605886371</v>
+        <v>1.102733605886399</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.017476603284152</v>
+        <v>2.01747660328418</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.533719969549026</v>
+        <v>1.533719969548969</v>
       </c>
       <c r="C7">
-        <v>0.6759494506267458</v>
+        <v>0.6759494506267174</v>
       </c>
       <c r="D7">
-        <v>0.03503664702949294</v>
+        <v>0.03503664702940412</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.132986280973441</v>
+        <v>2.132986280973412</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,13 +646,13 @@
         <v>0.8276385169114633</v>
       </c>
       <c r="D8">
-        <v>0.03745120695232629</v>
+        <v>0.03745120695242932</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.374891224519615</v>
+        <v>2.374891224519644</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.663404557197552</v>
+        <v>2.663404557197538</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.556920110733245</v>
+        <v>2.556920110733074</v>
       </c>
       <c r="C9">
-        <v>1.136692772786091</v>
+        <v>1.136692772786489</v>
       </c>
       <c r="D9">
-        <v>0.0431996660176992</v>
+        <v>0.0431996660175642</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.708938882870541</v>
+        <v>1.708938882870555</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.816198237877018</v>
+        <v>3.816198237877046</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.077905326533767</v>
+        <v>3.077905326533369</v>
       </c>
       <c r="C10">
         <v>1.374916062317709</v>
       </c>
       <c r="D10">
-        <v>0.04836431401765395</v>
+        <v>0.04836431401750474</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.7921480555014</v>
+        <v>3.792148055501372</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.021084136581806</v>
+        <v>2.02108413658182</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>3.320611634525221</v>
       </c>
       <c r="C11">
-        <v>1.486819413059436</v>
+        <v>1.486819413059663</v>
       </c>
       <c r="D11">
-        <v>0.05101547097910242</v>
+        <v>0.05101547097890347</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.171938014080922</v>
+        <v>2.171938014080908</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.265118142306008</v>
+        <v>5.265118142306022</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.413502011060871</v>
+        <v>3.413502011060757</v>
       </c>
       <c r="C12">
-        <v>1.529813932536797</v>
+        <v>1.52981393253657</v>
       </c>
       <c r="D12">
-        <v>0.05207375872893749</v>
+        <v>0.05207375872929276</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.456052710324016</v>
+        <v>5.456052710323959</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.393449916168095</v>
+        <v>3.393449916168208</v>
       </c>
       <c r="C13">
-        <v>1.520524778588936</v>
+        <v>1.520524778588651</v>
       </c>
       <c r="D13">
-        <v>0.05184321080733412</v>
+        <v>0.05184321080754017</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.185818711926316</v>
+        <v>4.185818711926345</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>3.328233090340575</v>
       </c>
       <c r="C14">
-        <v>1.490343484068944</v>
+        <v>1.490343484068319</v>
       </c>
       <c r="D14">
-        <v>0.05110137343741172</v>
+        <v>0.05110137343752541</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.103651323848993</v>
+        <v>4.103651323848936</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.176732998746019</v>
+        <v>2.17673299874599</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.280646715131482</v>
+        <v>5.280646715131454</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.288419017274919</v>
+        <v>3.288419017274862</v>
       </c>
       <c r="C15">
-        <v>1.4719408251662</v>
+        <v>1.471940825166485</v>
       </c>
       <c r="D15">
-        <v>0.05065443402792624</v>
+        <v>0.05065443402782677</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.151723638599265</v>
+        <v>2.151723638599279</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.199790361675426</v>
+        <v>5.199790361675454</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,10 +947,10 @@
         <v>3.062172172414762</v>
       </c>
       <c r="C16">
-        <v>1.367683087627142</v>
+        <v>1.367683087626403</v>
       </c>
       <c r="D16">
-        <v>0.04819799547089332</v>
+        <v>0.0481979954711278</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.011426752702306</v>
+        <v>2.011426752702292</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.752140744498703</v>
+        <v>4.752140744498675</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.924948301891902</v>
+        <v>2.924948301892073</v>
       </c>
       <c r="C17">
-        <v>1.304702702540112</v>
+        <v>1.304702702540339</v>
       </c>
       <c r="D17">
-        <v>0.04677522863120487</v>
+        <v>0.04677522863097039</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.604768938757928</v>
+        <v>3.604768938757957</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.927811620160796</v>
+        <v>1.927811620160782</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.846547169081418</v>
+        <v>2.846547169081305</v>
       </c>
       <c r="C18">
-        <v>1.268803079075553</v>
+        <v>1.268803079075099</v>
       </c>
       <c r="D18">
-        <v>0.04598449014334705</v>
+        <v>0.04598449014348915</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.509576131986336</v>
+        <v>3.509576131986307</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.880531448353153</v>
+        <v>1.880531448353125</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.820087672005684</v>
+        <v>2.82008767200557</v>
       </c>
       <c r="C19">
-        <v>1.256700829519957</v>
+        <v>1.256700829520014</v>
       </c>
       <c r="D19">
-        <v>0.04572121293734455</v>
+        <v>0.04572121293735876</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.477578935882605</v>
+        <v>3.477578935882576</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.293527243211088</v>
+        <v>4.293527243211074</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.939500422077117</v>
+        <v>2.93950042207706</v>
       </c>
       <c r="C20">
-        <v>1.311372689537848</v>
+        <v>1.311372689537507</v>
       </c>
       <c r="D20">
-        <v>0.04692375825209893</v>
+        <v>0.04692375825199235</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.622501025390164</v>
+        <v>3.622501025390193</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.34736079597559</v>
+        <v>3.347360795975646</v>
       </c>
       <c r="C21">
         <v>1.499190676783826</v>
       </c>
       <c r="D21">
-        <v>0.05131769066178293</v>
+        <v>0.05131769066156977</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.127706368741997</v>
+        <v>4.127706368742054</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.188782841470513</v>
+        <v>2.188782841470498</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.319725675227488</v>
+        <v>5.319725675227545</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.619738114573238</v>
+        <v>3.619738114573295</v>
       </c>
       <c r="C22">
         <v>1.625616044938965</v>
       </c>
       <c r="D22">
-        <v>0.05451386786469925</v>
+        <v>0.05451386786432266</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.474298863179882</v>
+        <v>4.474298863179854</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.362877706078109</v>
+        <v>2.362877706078052</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.893791263768549</v>
+        <v>5.893791263768506</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.473774521923588</v>
+        <v>3.473774521923644</v>
       </c>
       <c r="C23">
-        <v>1.557762127732872</v>
+        <v>1.557762127732587</v>
       </c>
       <c r="D23">
-        <v>0.05277378707837244</v>
+        <v>0.05277378707803848</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.287611806501559</v>
+        <v>4.287611806501531</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.268993304679995</v>
+        <v>2.268993304679938</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.581948117971606</v>
+        <v>5.581948117971493</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,10 +1251,10 @@
         <v>2.932919892146458</v>
       </c>
       <c r="C24">
-        <v>1.308356235192946</v>
+        <v>1.308356235192775</v>
       </c>
       <c r="D24">
-        <v>0.0468565239797627</v>
+        <v>0.04685652397956375</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.504814891473714</v>
+        <v>4.5048148914737</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,10 +1289,10 @@
         <v>2.369147173675287</v>
       </c>
       <c r="C25">
-        <v>1.051456562668108</v>
+        <v>1.05145656266788</v>
       </c>
       <c r="D25">
-        <v>0.04150662513470849</v>
+        <v>0.04150662513447401</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.600261524181988</v>
+        <v>1.600261524181974</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.487836869770859</v>
+        <v>3.487836869770831</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.965735866846529</v>
+        <v>1.965735866846416</v>
       </c>
       <c r="C2">
         <v>0.8693905661980352</v>
       </c>
       <c r="D2">
-        <v>0.0381641567851787</v>
+        <v>0.03816415678505791</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.479328525176072</v>
+        <v>2.479328525176101</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.373716668338261</v>
+        <v>1.373716668338275</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.697447347513503</v>
+        <v>1.697447347513702</v>
       </c>
       <c r="C3">
-        <v>0.749078015083569</v>
+        <v>0.7490780150834553</v>
       </c>
       <c r="D3">
-        <v>0.0361656414645779</v>
+        <v>0.03616564146479817</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.180250966576551</v>
+        <v>2.180250966576565</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.385982697002717</v>
+        <v>2.385982697002746</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.534611070341413</v>
+        <v>1.534611070341697</v>
       </c>
       <c r="C4">
-        <v>0.6763468632632339</v>
+        <v>0.6763468632630349</v>
       </c>
       <c r="D4">
-        <v>0.0350426009335294</v>
+        <v>0.03504260093340505</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.002368898287855</v>
+        <v>2.002368898287827</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.142648893073869</v>
+        <v>1.142648893073854</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.134347759857732</v>
+        <v>2.134347759857761</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.468647061589337</v>
+        <v>1.468647061589309</v>
       </c>
       <c r="C5">
-        <v>0.6469458011331426</v>
+        <v>0.64694580113337</v>
       </c>
       <c r="D5">
-        <v>0.03460760538628449</v>
+        <v>0.03460760538650121</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.108382667792583</v>
+        <v>1.108382667792597</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.034015836888969</v>
+        <v>2.03401583688894</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>1.457715239390126</v>
       </c>
       <c r="C6">
-        <v>0.6420767647494188</v>
+        <v>0.6420767647496177</v>
       </c>
       <c r="D6">
-        <v>0.03453664857794791</v>
+        <v>0.03453664857805805</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.91937973799871</v>
+        <v>1.919379737998725</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.102733605886399</v>
+        <v>1.102733605886371</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.01747660328418</v>
+        <v>2.017476603284152</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.533719969548969</v>
+        <v>1.533719969549026</v>
       </c>
       <c r="C7">
-        <v>0.6759494506267174</v>
+        <v>0.6759494506267458</v>
       </c>
       <c r="D7">
-        <v>0.03503664702940412</v>
+        <v>0.03503664702949294</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.132986280973412</v>
+        <v>2.132986280973441</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,13 +646,13 @@
         <v>0.8276385169114633</v>
       </c>
       <c r="D8">
-        <v>0.03745120695242932</v>
+        <v>0.03745120695232629</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.374891224519644</v>
+        <v>2.374891224519615</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.663404557197538</v>
+        <v>2.663404557197552</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.556920110733074</v>
+        <v>2.556920110733245</v>
       </c>
       <c r="C9">
-        <v>1.136692772786489</v>
+        <v>1.136692772786091</v>
       </c>
       <c r="D9">
-        <v>0.0431996660175642</v>
+        <v>0.0431996660176992</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.708938882870555</v>
+        <v>1.708938882870541</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.816198237877046</v>
+        <v>3.816198237877018</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.077905326533369</v>
+        <v>3.077905326533767</v>
       </c>
       <c r="C10">
         <v>1.374916062317709</v>
       </c>
       <c r="D10">
-        <v>0.04836431401750474</v>
+        <v>0.04836431401765395</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.792148055501372</v>
+        <v>3.7921480555014</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.02108413658182</v>
+        <v>2.021084136581806</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>3.320611634525221</v>
       </c>
       <c r="C11">
-        <v>1.486819413059663</v>
+        <v>1.486819413059436</v>
       </c>
       <c r="D11">
-        <v>0.05101547097890347</v>
+        <v>0.05101547097910242</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.171938014080908</v>
+        <v>2.171938014080922</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.265118142306022</v>
+        <v>5.265118142306008</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.413502011060757</v>
+        <v>3.413502011060871</v>
       </c>
       <c r="C12">
-        <v>1.52981393253657</v>
+        <v>1.529813932536797</v>
       </c>
       <c r="D12">
-        <v>0.05207375872929276</v>
+        <v>0.05207375872893749</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.456052710323959</v>
+        <v>5.456052710324016</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.393449916168208</v>
+        <v>3.393449916168095</v>
       </c>
       <c r="C13">
-        <v>1.520524778588651</v>
+        <v>1.520524778588936</v>
       </c>
       <c r="D13">
-        <v>0.05184321080754017</v>
+        <v>0.05184321080733412</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.185818711926345</v>
+        <v>4.185818711926316</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>3.328233090340575</v>
       </c>
       <c r="C14">
-        <v>1.490343484068319</v>
+        <v>1.490343484068944</v>
       </c>
       <c r="D14">
-        <v>0.05110137343752541</v>
+        <v>0.05110137343741172</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.103651323848936</v>
+        <v>4.103651323848993</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.17673299874599</v>
+        <v>2.176732998746019</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.280646715131454</v>
+        <v>5.280646715131482</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.288419017274862</v>
+        <v>3.288419017274919</v>
       </c>
       <c r="C15">
-        <v>1.471940825166485</v>
+        <v>1.4719408251662</v>
       </c>
       <c r="D15">
-        <v>0.05065443402782677</v>
+        <v>0.05065443402792624</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.151723638599279</v>
+        <v>2.151723638599265</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.199790361675454</v>
+        <v>5.199790361675426</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,10 +947,10 @@
         <v>3.062172172414762</v>
       </c>
       <c r="C16">
-        <v>1.367683087626403</v>
+        <v>1.367683087627142</v>
       </c>
       <c r="D16">
-        <v>0.0481979954711278</v>
+        <v>0.04819799547089332</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.011426752702292</v>
+        <v>2.011426752702306</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.752140744498675</v>
+        <v>4.752140744498703</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.924948301892073</v>
+        <v>2.924948301891902</v>
       </c>
       <c r="C17">
-        <v>1.304702702540339</v>
+        <v>1.304702702540112</v>
       </c>
       <c r="D17">
-        <v>0.04677522863097039</v>
+        <v>0.04677522863120487</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.604768938757957</v>
+        <v>3.604768938757928</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.927811620160782</v>
+        <v>1.927811620160796</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.846547169081305</v>
+        <v>2.846547169081418</v>
       </c>
       <c r="C18">
-        <v>1.268803079075099</v>
+        <v>1.268803079075553</v>
       </c>
       <c r="D18">
-        <v>0.04598449014348915</v>
+        <v>0.04598449014334705</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.509576131986307</v>
+        <v>3.509576131986336</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.880531448353125</v>
+        <v>1.880531448353153</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.82008767200557</v>
+        <v>2.820087672005684</v>
       </c>
       <c r="C19">
-        <v>1.256700829520014</v>
+        <v>1.256700829519957</v>
       </c>
       <c r="D19">
-        <v>0.04572121293735876</v>
+        <v>0.04572121293734455</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.477578935882576</v>
+        <v>3.477578935882605</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.293527243211074</v>
+        <v>4.293527243211088</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.93950042207706</v>
+        <v>2.939500422077117</v>
       </c>
       <c r="C20">
-        <v>1.311372689537507</v>
+        <v>1.311372689537848</v>
       </c>
       <c r="D20">
-        <v>0.04692375825199235</v>
+        <v>0.04692375825209893</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.622501025390193</v>
+        <v>3.622501025390164</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.347360795975646</v>
+        <v>3.34736079597559</v>
       </c>
       <c r="C21">
         <v>1.499190676783826</v>
       </c>
       <c r="D21">
-        <v>0.05131769066156977</v>
+        <v>0.05131769066178293</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.127706368742054</v>
+        <v>4.127706368741997</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.188782841470498</v>
+        <v>2.188782841470513</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.319725675227545</v>
+        <v>5.319725675227488</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.619738114573295</v>
+        <v>3.619738114573238</v>
       </c>
       <c r="C22">
         <v>1.625616044938965</v>
       </c>
       <c r="D22">
-        <v>0.05451386786432266</v>
+        <v>0.05451386786469925</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.474298863179854</v>
+        <v>4.474298863179882</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.362877706078052</v>
+        <v>2.362877706078109</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.893791263768506</v>
+        <v>5.893791263768549</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.473774521923644</v>
+        <v>3.473774521923588</v>
       </c>
       <c r="C23">
-        <v>1.557762127732587</v>
+        <v>1.557762127732872</v>
       </c>
       <c r="D23">
-        <v>0.05277378707803848</v>
+        <v>0.05277378707837244</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.287611806501531</v>
+        <v>4.287611806501559</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.268993304679938</v>
+        <v>2.268993304679995</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.581948117971493</v>
+        <v>5.581948117971606</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,10 +1251,10 @@
         <v>2.932919892146458</v>
       </c>
       <c r="C24">
-        <v>1.308356235192775</v>
+        <v>1.308356235192946</v>
       </c>
       <c r="D24">
-        <v>0.04685652397956375</v>
+        <v>0.0468565239797627</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.5048148914737</v>
+        <v>4.504814891473714</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,10 +1289,10 @@
         <v>2.369147173675287</v>
       </c>
       <c r="C25">
-        <v>1.05145656266788</v>
+        <v>1.051456562668108</v>
       </c>
       <c r="D25">
-        <v>0.04150662513447401</v>
+        <v>0.04150662513470849</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.600261524181974</v>
+        <v>1.600261524181988</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.487836869770831</v>
+        <v>3.487836869770859</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.965735866846416</v>
+        <v>1.942565105107747</v>
       </c>
       <c r="C2">
-        <v>0.8693905661980352</v>
+        <v>0.8550622659571445</v>
       </c>
       <c r="D2">
-        <v>0.03816415678505791</v>
+        <v>0.04036232018174957</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.479328525176101</v>
+        <v>2.486916753160699</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007683851013941313</v>
       </c>
       <c r="H2">
-        <v>1.373716668338275</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.383477619818962</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.813286453786858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.806690938446152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.697447347513702</v>
+        <v>1.676851170805918</v>
       </c>
       <c r="C3">
-        <v>0.7490780150834553</v>
+        <v>0.7362755076906069</v>
       </c>
       <c r="D3">
-        <v>0.03616564146479817</v>
+        <v>0.03851837059976404</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.180250966576565</v>
+        <v>2.191588960945538</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007774778987001456</v>
       </c>
       <c r="H3">
-        <v>1.228510779100006</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.240283172986111</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.385982697002746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.380645334621789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.534611070341697</v>
+        <v>1.515606090709639</v>
       </c>
       <c r="C4">
-        <v>0.6763468632630349</v>
+        <v>0.664483878799615</v>
       </c>
       <c r="D4">
-        <v>0.03504260093340505</v>
+        <v>0.0374891888339306</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.002368898287827</v>
+        <v>2.015986896916317</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007831728880067769</v>
       </c>
       <c r="H4">
-        <v>1.142648893073854</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.155641539425574</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.134347759857761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.129707872977761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.468647061589309</v>
+        <v>1.45029429049589</v>
       </c>
       <c r="C5">
-        <v>0.64694580113337</v>
+        <v>0.6354671604188979</v>
       </c>
       <c r="D5">
-        <v>0.03460760538650121</v>
+        <v>0.03709229001248815</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.931137013964886</v>
+        <v>1.945681314145688</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007855246171367948</v>
       </c>
       <c r="H5">
-        <v>1.108382667792597</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.121870453970573</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.03401583688894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.029645563882795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.457715239390126</v>
+        <v>1.439471027233481</v>
       </c>
       <c r="C6">
-        <v>0.6420767647496177</v>
+        <v>0.6306620551565914</v>
       </c>
       <c r="D6">
-        <v>0.03453664857805805</v>
+        <v>0.03702765292916865</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.919379737998725</v>
+        <v>1.934077754003155</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007859170670264978</v>
       </c>
       <c r="H6">
-        <v>1.102733605886371</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.116303523610611</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.017476603284152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.01315032266595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.533719969549026</v>
+        <v>1.514723769061504</v>
       </c>
       <c r="C7">
-        <v>0.6759494506267458</v>
+        <v>0.6640916425687919</v>
       </c>
       <c r="D7">
-        <v>0.03503664702949294</v>
+        <v>0.03748374919404895</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.001403388763748</v>
+        <v>2.015033887818191</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007832044753157685</v>
       </c>
       <c r="H7">
-        <v>1.142183969366727</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.155183300007394</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.132986280973441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.128350084468764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.872784384261138</v>
+        <v>1.850499930007771</v>
       </c>
       <c r="C8">
-        <v>0.8276385169114633</v>
+        <v>0.8138362725012485</v>
       </c>
       <c r="D8">
-        <v>0.03745120695232629</v>
+        <v>0.03970295425411408</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.374891224519615</v>
+        <v>2.38377884103231</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007714988644270624</v>
       </c>
       <c r="H8">
-        <v>1.322898402850939</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.333357007017781</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.663404557197552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.657261337780398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.556920110733245</v>
+        <v>2.528209055446894</v>
       </c>
       <c r="C9">
-        <v>1.136692772786091</v>
+        <v>1.119056007867897</v>
       </c>
       <c r="D9">
-        <v>0.0431996660176992</v>
+        <v>0.04505386055744509</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.162860725936042</v>
+        <v>3.162115914857708</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007492838229384238</v>
       </c>
       <c r="H9">
-        <v>1.708938882870541</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.714209831848706</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.816198237877018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.806236076722243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.077905326533767</v>
+        <v>3.04438677175267</v>
       </c>
       <c r="C10">
-        <v>1.374916062317709</v>
+        <v>1.354376901588637</v>
       </c>
       <c r="D10">
-        <v>0.04836431401765395</v>
+        <v>0.04990647435219842</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.7921480555014</v>
+        <v>3.783848970140554</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007331609540458473</v>
       </c>
       <c r="H10">
-        <v>2.021084136581806</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.022260303598642</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.782648661136122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.768780816993967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.320611634525221</v>
+        <v>3.284860647264622</v>
       </c>
       <c r="C11">
-        <v>1.486819413059436</v>
+        <v>1.464920624517845</v>
       </c>
       <c r="D11">
-        <v>0.05101547097910242</v>
+        <v>0.05240776188675511</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.094076722762225</v>
+        <v>4.082150173753178</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007257950037209265</v>
       </c>
       <c r="H11">
-        <v>2.171938014080922</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.171139090808268</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.265118142306008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.249004879770595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.413502011060871</v>
+        <v>3.376896500338944</v>
       </c>
       <c r="C12">
-        <v>1.529813932536797</v>
+        <v>1.507392416132973</v>
       </c>
       <c r="D12">
-        <v>0.05207375872893749</v>
+        <v>0.05340772691970841</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.211168633752322</v>
+        <v>4.197830639773514</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000722992912522551</v>
       </c>
       <c r="H12">
-        <v>2.230624808380384</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.229055718938724</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.456052710324016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.438988489172573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.393449916168095</v>
+        <v>3.357028894169218</v>
       </c>
       <c r="C13">
-        <v>1.520524778588936</v>
+        <v>1.498216231565038</v>
       </c>
       <c r="D13">
-        <v>0.05184321080733412</v>
+        <v>0.05318981825197966</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.185818711926316</v>
+        <v>4.172786583217913</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007235971170716262</v>
       </c>
       <c r="H13">
-        <v>2.217910707604048</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.216508597380354</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.414523646660697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.397669440400094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.328233090340575</v>
+        <v>3.292412000360571</v>
       </c>
       <c r="C14">
-        <v>1.490343484068944</v>
+        <v>1.468401862528196</v>
       </c>
       <c r="D14">
-        <v>0.05110137343741172</v>
+        <v>0.0524889005999043</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.103651323848993</v>
+        <v>4.091609484145295</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007255647853241347</v>
       </c>
       <c r="H14">
-        <v>2.176732998746019</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.175871201912344</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.280646715131482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.264457490309411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.288419017274919</v>
+        <v>3.252964128548115</v>
       </c>
       <c r="C15">
-        <v>1.4719408251662</v>
+        <v>1.450222857409983</v>
       </c>
       <c r="D15">
-        <v>0.05065443402792624</v>
+        <v>0.05206680577676792</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.053697732703824</v>
+        <v>4.042257183205891</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007267680931149644</v>
       </c>
       <c r="H15">
-        <v>2.151723638599265</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.151189685282887</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.199790361675426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.183994054317168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.062172172414762</v>
+        <v>3.028798381445313</v>
       </c>
       <c r="C16">
-        <v>1.367683087627142</v>
+        <v>1.347231812491884</v>
       </c>
       <c r="D16">
-        <v>0.04819799547089332</v>
+        <v>0.04974975711557761</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.772772034227728</v>
+        <v>3.764705360962211</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007336410472454654</v>
       </c>
       <c r="H16">
-        <v>2.011426752702306</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.012729261508596</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.752140744498703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.738407744345935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.924948301891902</v>
+        <v>2.892837794877948</v>
       </c>
       <c r="C17">
-        <v>1.304702702540112</v>
+        <v>1.285017006093369</v>
       </c>
       <c r="D17">
-        <v>0.04677522863120487</v>
+        <v>0.04841020855572964</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.604768938757928</v>
+        <v>3.598716755830623</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007378440993938109</v>
       </c>
       <c r="H17">
-        <v>1.927811620160796</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.930208239175073</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.489749234241671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.477143169418454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.846547169081418</v>
+        <v>2.815159166064063</v>
       </c>
       <c r="C18">
-        <v>1.268803079075553</v>
+        <v>1.249554180359553</v>
       </c>
       <c r="D18">
-        <v>0.04598449014334705</v>
+        <v>0.04766662169712532</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.509576131986336</v>
+        <v>3.50466542810338</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007402592092376136</v>
       </c>
       <c r="H18">
-        <v>1.880531448353153</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.883547253291127</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.34270165467963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.330702344937436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.820087672005684</v>
+        <v>2.788943665832562</v>
       </c>
       <c r="C19">
-        <v>1.256700829519957</v>
+        <v>1.237599274261299</v>
       </c>
       <c r="D19">
-        <v>0.04572121293734455</v>
+        <v>0.04741919758856028</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.477578935882605</v>
+        <v>3.473052025541165</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007410767323736381</v>
       </c>
       <c r="H19">
-        <v>1.864655157680446</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.867879024447149</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.293527243211088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.281727013857676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.939500422077117</v>
+        <v>2.907255878901424</v>
       </c>
       <c r="C20">
-        <v>1.311372689537848</v>
+        <v>1.29160587710021</v>
       </c>
       <c r="D20">
-        <v>0.04692375825209893</v>
+        <v>0.04854995594006795</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.622501025390164</v>
+        <v>3.616236241237488</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.000737396975826061</v>
       </c>
       <c r="H20">
-        <v>1.936626582097134</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.938907815970822</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.517267692727827</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.504546140043061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.34736079597559</v>
+        <v>3.311363762097528</v>
       </c>
       <c r="C21">
-        <v>1.499190676783826</v>
+        <v>1.477141513982701</v>
       </c>
       <c r="D21">
-        <v>0.05131769066178293</v>
+        <v>0.05269324554393506</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.127706368741997</v>
+        <v>4.115374783475005</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007249872571694304</v>
       </c>
       <c r="H21">
-        <v>2.188782841470513</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.187763004586074</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.319725675227488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.303344217863454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.619738114573238</v>
+        <v>3.581233863669752</v>
       </c>
       <c r="C22">
-        <v>1.625616044938965</v>
+        <v>1.602027960354008</v>
       </c>
       <c r="D22">
-        <v>0.05451386786469925</v>
+        <v>0.05571612987642283</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.474298863179882</v>
+        <v>4.457774137316363</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007167966654507804</v>
       </c>
       <c r="H22">
-        <v>2.362877706078109</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.359566130393205</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.893791263768549</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.874399689707744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.473774521923588</v>
+        <v>3.436614368058201</v>
       </c>
       <c r="C23">
-        <v>1.557762127732872</v>
+        <v>1.535000591454377</v>
       </c>
       <c r="D23">
-        <v>0.05277378707837244</v>
+        <v>0.0540695939726632</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.287611806501559</v>
+        <v>4.273350369671363</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007211788505971714</v>
       </c>
       <c r="H23">
-        <v>2.268993304679995</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.266919807640349</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.581948117971606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.564236134661996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.932919892146458</v>
+        <v>2.900735958283065</v>
       </c>
       <c r="C24">
-        <v>1.308356235192946</v>
+        <v>1.288626105549042</v>
       </c>
       <c r="D24">
-        <v>0.0468565239797627</v>
+        <v>0.04848669424097807</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.61448004217155</v>
+        <v>3.608311426254659</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007375991238053147</v>
       </c>
       <c r="H24">
-        <v>1.932638893837407</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.934972323532676</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.504814891473714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.492145676753282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.369147173675287</v>
+        <v>2.342181707736756</v>
       </c>
       <c r="C25">
-        <v>1.051456562668108</v>
+        <v>1.034866090425254</v>
       </c>
       <c r="D25">
-        <v>0.04150662513470849</v>
+        <v>0.04347090286550781</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.942213646501784</v>
+        <v>2.944134697911068</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007552375857774926</v>
       </c>
       <c r="H25">
-        <v>1.600261524181988</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.606971895251689</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.487836869770859</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.479046297500389</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.942565105107747</v>
+        <v>2.409021893291708</v>
       </c>
       <c r="C2">
-        <v>0.8550622659571445</v>
+        <v>0.5592542886263345</v>
       </c>
       <c r="D2">
-        <v>0.04036232018174957</v>
+        <v>0.03441374492199856</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.486916753160699</v>
+        <v>0.6984253286453139</v>
       </c>
       <c r="G2">
-        <v>0.0007683851013941313</v>
+        <v>0.0007902852569930163</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.383477619818962</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6642250886631729</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.806690938446152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.4838675264076429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.676851170805918</v>
+        <v>2.086400078554448</v>
       </c>
       <c r="C3">
-        <v>0.7362755076906069</v>
+        <v>0.4873283510525539</v>
       </c>
       <c r="D3">
-        <v>0.03851837059976404</v>
+        <v>0.0332057374333381</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.191588960945538</v>
+        <v>0.6478957084408776</v>
       </c>
       <c r="G3">
-        <v>0.0007774778987001456</v>
+        <v>0.0007967270977169653</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.240283172986111</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5755713851814832</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.380645334621789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.4584081426898692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.515606090709639</v>
+        <v>1.88975452751896</v>
       </c>
       <c r="C4">
-        <v>0.664483878799615</v>
+        <v>0.4433766145311608</v>
       </c>
       <c r="D4">
-        <v>0.0374891888339306</v>
+        <v>0.03249629343785188</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.015986896916317</v>
+        <v>0.6195827937130218</v>
       </c>
       <c r="G4">
-        <v>0.0007831728880067769</v>
+        <v>0.0008007911397631663</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.155641539425574</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5214946486680816</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.129707872977761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.4449654025737289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.45029429049589</v>
+        <v>1.809918623556541</v>
       </c>
       <c r="C5">
-        <v>0.6354671604188979</v>
+        <v>0.4255056541761064</v>
       </c>
       <c r="D5">
-        <v>0.03709229001248815</v>
+        <v>0.03221465392958578</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.945681314145688</v>
+        <v>0.6086740620432423</v>
       </c>
       <c r="G5">
-        <v>0.0007855246171367948</v>
+        <v>0.000802475600701363</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.121870453970573</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4995302924245664</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.029645563882795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.4399967355177452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.439471027233481</v>
+        <v>1.796678176561642</v>
       </c>
       <c r="C6">
-        <v>0.6306620551565914</v>
+        <v>0.4225402243008887</v>
       </c>
       <c r="D6">
-        <v>0.03702765292916865</v>
+        <v>0.03216832107114698</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.934077754003155</v>
+        <v>0.6068991832727733</v>
       </c>
       <c r="G6">
-        <v>0.0007859170670264978</v>
+        <v>0.0008027570430145974</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.116303523610611</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.495887013833844</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.01315032266595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.4392013055376012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.514723769061504</v>
+        <v>1.888676704978565</v>
       </c>
       <c r="C7">
-        <v>0.6640916425687919</v>
+        <v>0.4431354565211905</v>
       </c>
       <c r="D7">
-        <v>0.03748374919404895</v>
+        <v>0.03249246573330211</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.015033887818191</v>
+        <v>0.6194331953929435</v>
       </c>
       <c r="G7">
-        <v>0.0007832044753157685</v>
+        <v>0.0008008137410155766</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.155183300007394</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5211981587788372</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.128350084468764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.4448963833879915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.850499930007771</v>
+        <v>2.297441255947547</v>
       </c>
       <c r="C8">
-        <v>0.8138362725012485</v>
+        <v>0.5344020221864696</v>
       </c>
       <c r="D8">
-        <v>0.03970295425411408</v>
+        <v>0.03399010879401132</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.38377884103231</v>
+        <v>0.6804066276932588</v>
       </c>
       <c r="G8">
-        <v>0.0007714988644270624</v>
+        <v>0.0007924844556876094</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.333357007017781</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6335722654071105</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.657261337780398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.4746090065398789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.528209055446894</v>
+        <v>3.113722552432989</v>
       </c>
       <c r="C9">
-        <v>1.119056007867897</v>
+        <v>0.7157193705697864</v>
       </c>
       <c r="D9">
-        <v>0.04505386055744509</v>
+        <v>0.03721679365419561</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.162115914857708</v>
+        <v>0.8240982860205435</v>
       </c>
       <c r="G9">
-        <v>0.0007492838229384238</v>
+        <v>0.000776964803071157</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.714209831848706</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8576391350524091</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.806236076722243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.5522665416798489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.04438677175267</v>
+        <v>3.727396845787439</v>
       </c>
       <c r="C10">
-        <v>1.354376901588637</v>
+        <v>0.8514044003699723</v>
       </c>
       <c r="D10">
-        <v>0.04990647435219842</v>
+        <v>0.03981834499633408</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.783848970140554</v>
+        <v>0.9483475554086596</v>
       </c>
       <c r="G10">
-        <v>0.0007331609540458473</v>
+        <v>0.0007659844881334412</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.022260303598642</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.025865043560529</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.768780816993967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.6242289939438521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.284860647264622</v>
+        <v>4.010859300077925</v>
       </c>
       <c r="C11">
-        <v>1.464920624517845</v>
+        <v>0.9139317254114303</v>
       </c>
       <c r="D11">
-        <v>0.05240776188675511</v>
+        <v>0.0410663745588522</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.082150173753178</v>
+        <v>1.009922649269896</v>
       </c>
       <c r="G11">
-        <v>0.0007257950037209265</v>
+        <v>0.0007610624256599358</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.171139090808268</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.103517524158917</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.249004879770595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.6609776795473792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.376896500338944</v>
+        <v>4.118934546094238</v>
       </c>
       <c r="C12">
-        <v>1.507392416132973</v>
+        <v>0.9377495028131477</v>
       </c>
       <c r="D12">
-        <v>0.05340772691970841</v>
+        <v>0.04154966190487386</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.197830639773514</v>
+        <v>1.034059804580153</v>
       </c>
       <c r="G12">
-        <v>0.000722992912522551</v>
+        <v>0.0007592073461679006</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.229055718938724</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.133116083465666</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.438988489172573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.6755434423809703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.357028894169218</v>
+        <v>4.095623969051701</v>
       </c>
       <c r="C13">
-        <v>1.498216231565038</v>
+        <v>0.932613269392391</v>
       </c>
       <c r="D13">
-        <v>0.05318981825197966</v>
+        <v>0.04144507764662109</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.172786583217913</v>
+        <v>1.028823368455917</v>
       </c>
       <c r="G13">
-        <v>0.0007235971170716262</v>
+        <v>0.0007596065082595106</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.216508597380354</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.126732371355985</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.397669440400094</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.6723762952605341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.292412000360571</v>
+        <v>4.019735291038501</v>
       </c>
       <c r="C14">
-        <v>1.468401862528196</v>
+        <v>0.915888271268301</v>
       </c>
       <c r="D14">
-        <v>0.0524889005999043</v>
+        <v>0.0411059120139825</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.091609484145295</v>
+        <v>1.011891421794715</v>
       </c>
       <c r="G14">
-        <v>0.0007255647853241347</v>
+        <v>0.0007609096411297692</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.175871201912344</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.105948549996597</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.264457490309411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.6621625435609886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.252964128548115</v>
+        <v>3.973350558248399</v>
       </c>
       <c r="C15">
-        <v>1.450222857409983</v>
+        <v>0.9056627393563303</v>
       </c>
       <c r="D15">
-        <v>0.05206680577676792</v>
+        <v>0.0408995997919348</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.042257183205891</v>
+        <v>1.001629850835528</v>
       </c>
       <c r="G15">
-        <v>0.0007267680931149644</v>
+        <v>0.0007617089402709091</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.151189685282887</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.093244017955612</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.183994054317168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.655993254134799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.028798381445313</v>
+        <v>3.708968038510875</v>
       </c>
       <c r="C16">
-        <v>1.347231812491884</v>
+        <v>0.8473362915060818</v>
       </c>
       <c r="D16">
-        <v>0.04974975711557761</v>
+        <v>0.03973819796541278</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.764705360962211</v>
+        <v>0.944432913063153</v>
       </c>
       <c r="G16">
-        <v>0.0007336410472454654</v>
+        <v>0.0007663074837901179</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.012729261508596</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.020815526064737</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.738407744345935</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.6219141677422115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.892837794877948</v>
+        <v>3.547957561492524</v>
       </c>
       <c r="C17">
-        <v>1.285017006093369</v>
+        <v>0.8117772646115213</v>
       </c>
       <c r="D17">
-        <v>0.04841020855572964</v>
+        <v>0.03904319007482826</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.598716755830623</v>
+        <v>0.9107020074832519</v>
       </c>
       <c r="G17">
-        <v>0.0007378440993938109</v>
+        <v>0.0007691460753005721</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.930208239175073</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9766925518386955</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.477143169418454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.6020848076089891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.815159166064063</v>
+        <v>3.455745569584849</v>
       </c>
       <c r="C18">
-        <v>1.249554180359553</v>
+        <v>0.7913986608427876</v>
       </c>
       <c r="D18">
-        <v>0.04766662169712532</v>
+        <v>0.03864942292045015</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.50466542810338</v>
+        <v>0.8917703841061524</v>
       </c>
       <c r="G18">
-        <v>0.0007402592092376136</v>
+        <v>0.000770785734431619</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.883547253291127</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9514180630966536</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.330702344937436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.5910523611637544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.788943665832562</v>
+        <v>3.424589025661987</v>
       </c>
       <c r="C19">
-        <v>1.237599274261299</v>
+        <v>0.7845108255339426</v>
       </c>
       <c r="D19">
-        <v>0.04741919758856028</v>
+        <v>0.0385170881628909</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.473052025541165</v>
+        <v>0.8854384193334113</v>
       </c>
       <c r="G19">
-        <v>0.0007410767323736381</v>
+        <v>0.0007713421416265765</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.867879024447149</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9428774966968803</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.281727013857676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0.587378916473547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.907255878901424</v>
+        <v>3.565055516488769</v>
       </c>
       <c r="C20">
-        <v>1.29160587710021</v>
+        <v>0.8155547556774252</v>
       </c>
       <c r="D20">
-        <v>0.04854995594006795</v>
+        <v>0.03911654610551096</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.616236241237488</v>
+        <v>0.914243484742471</v>
       </c>
       <c r="G20">
-        <v>0.000737396975826061</v>
+        <v>0.0007688431921087524</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.938907815970822</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9813785504413488</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.504546140043061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0.6041565834854694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.311363762097528</v>
+        <v>4.042004721173726</v>
       </c>
       <c r="C21">
-        <v>1.477141513982701</v>
+        <v>0.9207967986772587</v>
       </c>
       <c r="D21">
-        <v>0.05269324554393506</v>
+        <v>0.04120523102857732</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.115374783475005</v>
+        <v>1.01684169478402</v>
       </c>
       <c r="G21">
-        <v>0.0007249872571694304</v>
+        <v>0.0007605266550227722</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.187763004586074</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.112047749605992</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.303344217863454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.6651443124920746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.581233863669752</v>
+        <v>4.358061415375801</v>
       </c>
       <c r="C22">
-        <v>1.602027960354008</v>
+        <v>0.9904082980958435</v>
       </c>
       <c r="D22">
-        <v>0.05571612987642283</v>
+        <v>0.04263338987658472</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.457774137316363</v>
+        <v>1.08872625934896</v>
       </c>
       <c r="G22">
-        <v>0.0007167966654507804</v>
+        <v>0.0007551416833831987</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.359566130393205</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.198591250424016</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.874399689707744</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.7088309844510974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.436614368058201</v>
+        <v>4.188936833313107</v>
       </c>
       <c r="C23">
-        <v>1.535000591454377</v>
+        <v>0.9531705509540984</v>
       </c>
       <c r="D23">
-        <v>0.0540695939726632</v>
+        <v>0.04186486658197452</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.273350369671363</v>
+        <v>1.049884477522198</v>
       </c>
       <c r="G23">
-        <v>0.0007211788505971714</v>
+        <v>0.0007580117425153781</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.266919807640349</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.152285392740708</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.564236134661996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0.6851380878491256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.900735958283065</v>
+        <v>3.557324433654742</v>
       </c>
       <c r="C24">
-        <v>1.288626105549042</v>
+        <v>0.8138467520852259</v>
       </c>
       <c r="D24">
-        <v>0.04848669424097807</v>
+        <v>0.0390833638750081</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.608311426254659</v>
+        <v>0.9126409547463226</v>
       </c>
       <c r="G24">
-        <v>0.0007375991238053147</v>
+        <v>0.0007689801014265369</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.934972323532676</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9792597250042974</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.492145676753282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.6032187936579874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.342181707736756</v>
+        <v>2.890837671250608</v>
       </c>
       <c r="C25">
-        <v>1.034866090425254</v>
+        <v>0.6663161586503747</v>
       </c>
       <c r="D25">
-        <v>0.04347090286550781</v>
+        <v>0.03630770642198655</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.944134697911068</v>
+        <v>0.7822561028177688</v>
       </c>
       <c r="G25">
-        <v>0.0007552375857774926</v>
+        <v>0.0007810833973646476</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.606971895251689</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7964958063956544</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.479046297500389</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0.5288815687218147</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.409021893291708</v>
+        <v>1.898194479076238</v>
       </c>
       <c r="C2">
-        <v>0.5592542886263345</v>
+        <v>0.4624401188256968</v>
       </c>
       <c r="D2">
-        <v>0.03441374492199856</v>
+        <v>0.06850482565635474</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6984253286453139</v>
+        <v>0.2719354109714018</v>
       </c>
       <c r="G2">
-        <v>0.0007902852569930163</v>
+        <v>0.1715833186460429</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1448089404948831</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.08113011856056573</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6642250886631729</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.79314815510719</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4838675264076429</v>
+        <v>0.6186119660686131</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.086400078554448</v>
+        <v>1.669882718094499</v>
       </c>
       <c r="C3">
-        <v>0.4873283510525539</v>
+        <v>0.4161563342128431</v>
       </c>
       <c r="D3">
-        <v>0.0332057374333381</v>
+        <v>0.05990917511687854</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6478957084408776</v>
+        <v>0.247919875478452</v>
       </c>
       <c r="G3">
-        <v>0.0007967270977169653</v>
+        <v>0.1555320244953649</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1429465834361281</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.08719325198373795</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5755713851814832</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.378776722571359</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4584081426898692</v>
+        <v>0.5803415566552133</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.88975452751896</v>
+        <v>1.529130054427895</v>
       </c>
       <c r="C4">
-        <v>0.4433766145311608</v>
+        <v>0.3875969675188742</v>
       </c>
       <c r="D4">
-        <v>0.03249629343785188</v>
+        <v>0.05461642092884489</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6195827937130218</v>
+        <v>0.2339234565772657</v>
       </c>
       <c r="G4">
-        <v>0.0008007911397631663</v>
+        <v>0.1463484365380054</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1422267909319004</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.09149417063725629</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5214946486680816</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.133035038606906</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4449654025737289</v>
+        <v>0.5591470864528958</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.809918623556541</v>
+        <v>1.471631658319382</v>
       </c>
       <c r="C5">
-        <v>0.4255056541761064</v>
+        <v>0.3759258463224455</v>
       </c>
       <c r="D5">
-        <v>0.03221465392958578</v>
+        <v>0.05245571231113644</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6086740620432423</v>
+        <v>0.2283946130870831</v>
       </c>
       <c r="G5">
-        <v>0.000802475600701363</v>
+        <v>0.142761781864948</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1420344848147863</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.09338398550924687</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4995302924245664</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.034704255888599</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4399967355177452</v>
+        <v>0.5510497761718938</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.796678176561642</v>
+        <v>1.462075663695884</v>
       </c>
       <c r="C6">
-        <v>0.4225402243008887</v>
+        <v>0.3739859421094422</v>
       </c>
       <c r="D6">
-        <v>0.03216832107114698</v>
+        <v>0.05209669158764996</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6068991832727733</v>
+        <v>0.2274867305916217</v>
       </c>
       <c r="G6">
-        <v>0.0008027570430145974</v>
+        <v>0.1421752564812522</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1420084986043264</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.093705841986095</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.495887013833844</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.018475976434914</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4392013055376012</v>
+        <v>0.5497367052621769</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.888676704978565</v>
+        <v>1.528355177308811</v>
       </c>
       <c r="C7">
-        <v>0.4431354565211905</v>
+        <v>0.3874396970565215</v>
       </c>
       <c r="D7">
-        <v>0.03249246573330211</v>
+        <v>0.05458729665772921</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6194331953929435</v>
+        <v>0.2338482021645589</v>
       </c>
       <c r="G7">
-        <v>0.0008008137410155766</v>
+        <v>0.1462994519421343</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1422237954667125</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.09151911245514199</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5211981587788372</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.131702037086399</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4448963833879915</v>
+        <v>0.5590357489354432</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.297441255947547</v>
+        <v>1.819592111448458</v>
       </c>
       <c r="C8">
-        <v>0.5344020221864696</v>
+        <v>0.4465123262959025</v>
       </c>
       <c r="D8">
-        <v>0.03399010879401132</v>
+        <v>0.06554409850176057</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6804066276932588</v>
+        <v>0.2634908820157023</v>
       </c>
       <c r="G8">
-        <v>0.0007924844556876094</v>
+        <v>0.1659010952852285</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.144075418523677</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.08309556667282791</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6335722654071105</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.648228315261278</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4746090065398789</v>
+        <v>0.6049134328982717</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.113722552432989</v>
+        <v>2.386068912991846</v>
       </c>
       <c r="C9">
-        <v>0.7157193705697864</v>
+        <v>0.561103991826144</v>
       </c>
       <c r="D9">
-        <v>0.03721679365419561</v>
+        <v>0.086915867627674</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8240982860205435</v>
+        <v>0.3282317065053846</v>
       </c>
       <c r="G9">
-        <v>0.000776964803071157</v>
+        <v>0.21032368382577</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1513381525851329</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.07156734438218315</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8576391350524091</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.750389379419687</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5522665416798489</v>
+        <v>0.7151074524562375</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.727396845787439</v>
+        <v>2.799162791615345</v>
       </c>
       <c r="C10">
-        <v>0.8514044003699723</v>
+        <v>0.6443010564598808</v>
       </c>
       <c r="D10">
-        <v>0.03981834499633408</v>
+        <v>0.1025526434594042</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9483475554086596</v>
+        <v>0.3808547070718902</v>
       </c>
       <c r="G10">
-        <v>0.0007659844881334412</v>
+        <v>0.2476183299974579</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1593007314405455</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.06676175345822521</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.025865043560529</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.650406592518351</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6242289939438521</v>
+        <v>0.8114057045360283</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.010859300077925</v>
+        <v>2.986298589254659</v>
       </c>
       <c r="C11">
-        <v>0.9139317254114303</v>
+        <v>0.6818578287110029</v>
       </c>
       <c r="D11">
-        <v>0.0410663745588522</v>
+        <v>0.1096517706283038</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.009922649269896</v>
+        <v>0.4061552277069325</v>
       </c>
       <c r="G11">
-        <v>0.0007610624256599358</v>
+        <v>0.2658566413068684</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1635980728068205</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0655318379387122</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.103517524158917</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.090505958071645</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6609776795473792</v>
+        <v>0.8593175379856177</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.118934546094238</v>
+        <v>3.057031366499189</v>
       </c>
       <c r="C12">
-        <v>0.9377495028131477</v>
+        <v>0.6960284828472538</v>
       </c>
       <c r="D12">
-        <v>0.04154966190487386</v>
+        <v>0.1123377618400241</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.034059804580153</v>
+        <v>0.4159572361180182</v>
       </c>
       <c r="G12">
-        <v>0.0007592073461679006</v>
+        <v>0.2729716405432328</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1653325288779115</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.06521943212475101</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.133116083465666</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.262839537079316</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6755434423809703</v>
+        <v>0.8781263151693111</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.095623969051701</v>
+        <v>3.041804036774352</v>
       </c>
       <c r="C13">
-        <v>0.932613269392391</v>
+        <v>0.6929790472064781</v>
       </c>
       <c r="D13">
-        <v>0.04144507764662109</v>
+        <v>0.1117593939258512</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.028823368455917</v>
+        <v>0.4138359114747061</v>
       </c>
       <c r="G13">
-        <v>0.0007596065082595106</v>
+        <v>0.271429571564866</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1649540415651813</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.06527961469317489</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.126732371355985</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.225447586309627</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6723762952605341</v>
+        <v>0.8740445785484781</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.019735291038501</v>
+        <v>2.992120590552361</v>
       </c>
       <c r="C14">
-        <v>0.915888271268301</v>
+        <v>0.6830247510483218</v>
       </c>
       <c r="D14">
-        <v>0.0411059120139825</v>
+        <v>0.1098727969247477</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.011891421794715</v>
+        <v>0.4069570512856018</v>
       </c>
       <c r="G14">
-        <v>0.0007609096411297692</v>
+        <v>0.2664376559725667</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1637385574056793</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.06550296317321269</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.105948549996597</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.104561541819777</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6621625435609886</v>
+        <v>0.8608511342317797</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.973350558248399</v>
+        <v>2.961670220907649</v>
       </c>
       <c r="C15">
-        <v>0.9056627393563303</v>
+        <v>0.6769204405884182</v>
       </c>
       <c r="D15">
-        <v>0.0408995997919348</v>
+        <v>0.1087168919306123</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.001629850835528</v>
+        <v>0.4027731836207309</v>
       </c>
       <c r="G15">
-        <v>0.0007617089402709091</v>
+        <v>0.2634079500926987</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1630083148532435</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.06566025282392651</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.093244017955612</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.031298741714608</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.655993254134799</v>
+        <v>0.8528588842989677</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.708968038510875</v>
+        <v>2.78691583329055</v>
       </c>
       <c r="C16">
-        <v>0.8473362915060818</v>
+        <v>0.6418400472109909</v>
       </c>
       <c r="D16">
-        <v>0.03973819796541278</v>
+        <v>0.1020883962263781</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.944432913063153</v>
+        <v>0.3792307521604599</v>
       </c>
       <c r="G16">
-        <v>0.0007663074837901179</v>
+        <v>0.2464541168471328</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1590343043410414</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.06686267060145212</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.020815526064737</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.622362442062013</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6219141677422115</v>
+        <v>0.8083633398250925</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.547957561492524</v>
+        <v>2.679498049311633</v>
       </c>
       <c r="C17">
-        <v>0.8117772646115213</v>
+        <v>0.620239180409186</v>
       </c>
       <c r="D17">
-        <v>0.03904319007482826</v>
+        <v>0.09801827878003166</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9107020074832519</v>
+        <v>0.3651540146420515</v>
       </c>
       <c r="G17">
-        <v>0.0007691460753005721</v>
+        <v>0.2363964320672025</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1567760330518482</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.06785574008157624</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9766925518386955</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.380142822996362</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6020848076089891</v>
+        <v>0.7821683323374771</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.455745569584849</v>
+        <v>2.617642009732037</v>
       </c>
       <c r="C18">
-        <v>0.7913986608427876</v>
+        <v>0.6077883567706124</v>
       </c>
       <c r="D18">
-        <v>0.03864942292045015</v>
+        <v>0.09567595002407359</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8917703841061524</v>
+        <v>0.3571839381889461</v>
       </c>
       <c r="G18">
-        <v>0.000770785734431619</v>
+        <v>0.2307295874521742</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1555400067008677</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.06851585290708506</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9514180630966536</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.243618651193088</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5910523611637544</v>
+        <v>0.7674829755876971</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.424589025661987</v>
+        <v>2.596686678439937</v>
       </c>
       <c r="C19">
-        <v>0.7845108255339426</v>
+        <v>0.6035684018141296</v>
       </c>
       <c r="D19">
-        <v>0.0385170881628909</v>
+        <v>0.09488265884701974</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8854384193334113</v>
+        <v>0.3545064177741608</v>
       </c>
       <c r="G19">
-        <v>0.0007713421416265765</v>
+        <v>0.228830455091142</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1551320229217126</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.06875418490670171</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9428774966968803</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.197840888414618</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.587378916473547</v>
+        <v>0.7625741440440947</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.565055516488769</v>
+        <v>2.690940437995323</v>
       </c>
       <c r="C20">
-        <v>0.8155547556774252</v>
+        <v>0.6225414399317231</v>
       </c>
       <c r="D20">
-        <v>0.03911654610551096</v>
+        <v>0.09845168611310839</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.914243484742471</v>
+        <v>0.3666392440188062</v>
       </c>
       <c r="G20">
-        <v>0.0007688431921087524</v>
+        <v>0.2374546977454699</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.157009854391255</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.06774071569762974</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9813785504413488</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.40563030077648</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6041565834854694</v>
+        <v>0.784916861244696</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.042004721173726</v>
+        <v>3.006717583598061</v>
       </c>
       <c r="C21">
-        <v>0.9207967986772587</v>
+        <v>0.6859500532235074</v>
       </c>
       <c r="D21">
-        <v>0.04120523102857732</v>
+        <v>0.1104270015279809</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.01684169478402</v>
+        <v>0.4089713128208956</v>
       </c>
       <c r="G21">
-        <v>0.0007605266550227722</v>
+        <v>0.267898018612712</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1640925792904966</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.06543305983506897</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.112047749605992</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.139902622818326</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6651443124920746</v>
+        <v>0.8647076454378464</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.358061415375801</v>
+        <v>3.212314274351797</v>
       </c>
       <c r="C22">
-        <v>0.9904082980958435</v>
+        <v>0.7270852966191796</v>
       </c>
       <c r="D22">
-        <v>0.04263338987658472</v>
+        <v>0.1182399084970172</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.08872625934896</v>
+        <v>0.4379422248139591</v>
       </c>
       <c r="G22">
-        <v>0.0007551416833831987</v>
+        <v>0.2890251653449667</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.169351868773731</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.06482799174192877</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.198591250424016</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.653780744880194</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7088309844510974</v>
+        <v>0.9207794101317575</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.188936833313107</v>
+        <v>3.102663603492715</v>
       </c>
       <c r="C23">
-        <v>0.9531705509540984</v>
+        <v>0.7051627138999095</v>
       </c>
       <c r="D23">
-        <v>0.04186486658197452</v>
+        <v>0.1140714049912503</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.049884477522198</v>
+        <v>0.422351075605583</v>
       </c>
       <c r="G23">
-        <v>0.0007580117425153781</v>
+        <v>0.2776270171048765</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1664834910874617</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.06506235026186857</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.152285392740708</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.375877970070931</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6851380878491256</v>
+        <v>0.8904656669762119</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.557324433654742</v>
+        <v>2.685767644628982</v>
       </c>
       <c r="C24">
-        <v>0.8138467520852259</v>
+        <v>0.6215006880131</v>
       </c>
       <c r="D24">
-        <v>0.0390833638750081</v>
+        <v>0.0982557500042418</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9126409547463226</v>
+        <v>0.3659673911031476</v>
       </c>
       <c r="G24">
-        <v>0.0007689801014265369</v>
+        <v>0.2369758980958778</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1569039505045851</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.06779244159577758</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9792597250042974</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.394098995371451</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6032187936579874</v>
+        <v>0.7836730903631661</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.890837671250608</v>
+        <v>2.233337836625935</v>
       </c>
       <c r="C25">
-        <v>0.6663161586503747</v>
+        <v>0.5302579038724389</v>
       </c>
       <c r="D25">
-        <v>0.03630770642198655</v>
+        <v>0.08114582288660444</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7822561028177688</v>
+        <v>0.3099101227282191</v>
       </c>
       <c r="G25">
-        <v>0.0007810833973646476</v>
+        <v>0.1975680312675223</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1489444543556786</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0740917039884863</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7964958063956544</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.439446701626778</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5288815687218147</v>
+        <v>0.6828403623549235</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.898194479076238</v>
+        <v>0.6159107092382214</v>
       </c>
       <c r="C2">
-        <v>0.4624401188256968</v>
+        <v>0.1897266710568601</v>
       </c>
       <c r="D2">
-        <v>0.06850482565635474</v>
+        <v>0.02191339196804876</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2719354109714018</v>
+        <v>0.3052248113244787</v>
       </c>
       <c r="G2">
-        <v>0.1715833186460429</v>
+        <v>0.1662234647975112</v>
       </c>
       <c r="H2">
-        <v>0.1448089404948831</v>
+        <v>0.3356984809392287</v>
       </c>
       <c r="I2">
-        <v>0.08113011856056573</v>
+        <v>0.2283417952682925</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.79314815510719</v>
+        <v>0.8958937206540156</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6186119660686131</v>
+        <v>0.9057982176320536</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.669882718094499</v>
+        <v>0.5380219922801643</v>
       </c>
       <c r="C3">
-        <v>0.4161563342128431</v>
+        <v>0.1733923610344732</v>
       </c>
       <c r="D3">
-        <v>0.05990917511687854</v>
+        <v>0.01910969445793853</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.247919875478452</v>
+        <v>0.3028798491082725</v>
       </c>
       <c r="G3">
-        <v>0.1555320244953649</v>
+        <v>0.1649373110469767</v>
       </c>
       <c r="H3">
-        <v>0.1429465834361281</v>
+        <v>0.3386419939305583</v>
       </c>
       <c r="I3">
-        <v>0.08719325198373795</v>
+        <v>0.2335664298988398</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.378776722571359</v>
+        <v>0.797093620861375</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5803415566552133</v>
+        <v>0.9089946253170069</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.529130054427895</v>
+        <v>0.4899664346918939</v>
       </c>
       <c r="C4">
-        <v>0.3875969675188742</v>
+        <v>0.1633164876076023</v>
       </c>
       <c r="D4">
-        <v>0.05461642092884489</v>
+        <v>0.0173815707484053</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2339234565772657</v>
+        <v>0.3017303346825528</v>
       </c>
       <c r="G4">
-        <v>0.1463484365380054</v>
+        <v>0.1643614004117993</v>
       </c>
       <c r="H4">
-        <v>0.1422267909319004</v>
+        <v>0.3406654445999209</v>
       </c>
       <c r="I4">
-        <v>0.09149417063725629</v>
+        <v>0.2370092601481257</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.133035038606906</v>
+        <v>0.7369500878308202</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5591470864528958</v>
+        <v>0.9118546664451799</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.471631658319382</v>
+        <v>0.4703271999164258</v>
       </c>
       <c r="C5">
-        <v>0.3759258463224455</v>
+        <v>0.1591992833304232</v>
       </c>
       <c r="D5">
-        <v>0.05245571231113644</v>
+        <v>0.01667573458360039</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2283946130870831</v>
+        <v>0.3013347176755374</v>
       </c>
       <c r="G5">
-        <v>0.142761781864948</v>
+        <v>0.1641802016376701</v>
       </c>
       <c r="H5">
-        <v>0.1420344848147863</v>
+        <v>0.3415443152383162</v>
       </c>
       <c r="I5">
-        <v>0.09338398550924687</v>
+        <v>0.2384711145919205</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.034704255888599</v>
+        <v>0.7125658685623932</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5510497761718938</v>
+        <v>0.913245144734006</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.462075663695884</v>
+        <v>0.4670627850896949</v>
       </c>
       <c r="C6">
-        <v>0.3739859421094422</v>
+        <v>0.1585149627185558</v>
       </c>
       <c r="D6">
-        <v>0.05209669158764996</v>
+        <v>0.01655843540295621</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2274867305916217</v>
+        <v>0.3012734186244757</v>
       </c>
       <c r="G6">
-        <v>0.1421752564812522</v>
+        <v>0.1641533364143584</v>
       </c>
       <c r="H6">
-        <v>0.1420084986043264</v>
+        <v>0.341693529114302</v>
       </c>
       <c r="I6">
-        <v>0.093705841986095</v>
+        <v>0.2387174046267599</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.018475976434914</v>
+        <v>0.708524248516639</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5497367052621769</v>
+        <v>0.9134896014193004</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.528355177308811</v>
+        <v>0.4897017979854184</v>
       </c>
       <c r="C7">
-        <v>0.3874396970565215</v>
+        <v>0.1632610062551976</v>
       </c>
       <c r="D7">
-        <v>0.05458729665772921</v>
+        <v>0.01737205804388964</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2338482021645589</v>
+        <v>0.3017247046492315</v>
       </c>
       <c r="G7">
-        <v>0.1462994519421343</v>
+        <v>0.1643587404842464</v>
       </c>
       <c r="H7">
-        <v>0.1422237954667125</v>
+        <v>0.3406770775704544</v>
       </c>
       <c r="I7">
-        <v>0.09151911245514199</v>
+        <v>0.2370287371071758</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.131702037086399</v>
+        <v>0.7366207364426316</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5590357489354432</v>
+        <v>0.9118725088576696</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.819592111448458</v>
+        <v>0.5891039301068872</v>
       </c>
       <c r="C8">
-        <v>0.4465123262959025</v>
+        <v>0.1841045541998767</v>
       </c>
       <c r="D8">
-        <v>0.06554409850176057</v>
+        <v>0.0209480898591039</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2634908820157023</v>
+        <v>0.3043559067803372</v>
       </c>
       <c r="G8">
-        <v>0.1659010952852285</v>
+        <v>0.1657354627813561</v>
       </c>
       <c r="H8">
-        <v>0.144075418523677</v>
+        <v>0.3366685194313348</v>
       </c>
       <c r="I8">
-        <v>0.08309556667282791</v>
+        <v>0.230094385473361</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.648228315261278</v>
+        <v>0.8617158016676143</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6049134328982717</v>
+        <v>0.9067136664298374</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.386068912991846</v>
+        <v>0.7821140693481539</v>
       </c>
       <c r="C9">
-        <v>0.561103991826144</v>
+        <v>0.2245894104225954</v>
       </c>
       <c r="D9">
-        <v>0.086915867627674</v>
+        <v>0.02790572740148889</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3282317065053846</v>
+        <v>0.3118279927343721</v>
       </c>
       <c r="G9">
-        <v>0.21032368382577</v>
+        <v>0.1701441827593868</v>
       </c>
       <c r="H9">
-        <v>0.1513381525851329</v>
+        <v>0.3305248442795516</v>
       </c>
       <c r="I9">
-        <v>0.07156734438218315</v>
+        <v>0.2183681924949603</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.750389379419687</v>
+        <v>1.111442036355726</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7151074524562375</v>
+        <v>0.903749691253438</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.799162791615345</v>
+        <v>0.9226562708977326</v>
       </c>
       <c r="C10">
-        <v>0.6443010564598808</v>
+        <v>0.2540722671719209</v>
       </c>
       <c r="D10">
-        <v>0.1025526434594042</v>
+        <v>0.03298145581587164</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3808547070718902</v>
+        <v>0.3187408480103997</v>
       </c>
       <c r="G10">
-        <v>0.2476183299974579</v>
+        <v>0.1744431792544177</v>
       </c>
       <c r="H10">
-        <v>0.1593007314405455</v>
+        <v>0.3270611893598456</v>
       </c>
       <c r="I10">
-        <v>0.06676175345822521</v>
+        <v>0.2109054533406614</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.650406592518351</v>
+        <v>1.29803037629442</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8114057045360283</v>
+        <v>0.9059780463411897</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.986298589254659</v>
+        <v>0.986299576708916</v>
       </c>
       <c r="C11">
-        <v>0.6818578287110029</v>
+        <v>0.2674231308457422</v>
       </c>
       <c r="D11">
-        <v>0.1096517706283038</v>
+        <v>0.03528219647709818</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4061552277069325</v>
+        <v>0.3221976521285441</v>
       </c>
       <c r="G11">
-        <v>0.2658566413068684</v>
+        <v>0.1766329622975107</v>
       </c>
       <c r="H11">
-        <v>0.1635980728068205</v>
+        <v>0.3257142324450939</v>
       </c>
       <c r="I11">
-        <v>0.0655318379387122</v>
+        <v>0.2077631192850955</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.090505958071645</v>
+        <v>1.383685535601131</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8593175379856177</v>
+        <v>0.9079583942231864</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.057031366499189</v>
+        <v>1.010356076524033</v>
       </c>
       <c r="C12">
-        <v>0.6960284828472538</v>
+        <v>0.2724695120685112</v>
       </c>
       <c r="D12">
-        <v>0.1123377618400241</v>
+        <v>0.03615218944526077</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4159572361180182</v>
+        <v>0.3235517474076488</v>
       </c>
       <c r="G12">
-        <v>0.2729716405432328</v>
+        <v>0.1774961475698902</v>
       </c>
       <c r="H12">
-        <v>0.1653325288779115</v>
+        <v>0.3252371165877719</v>
       </c>
       <c r="I12">
-        <v>0.06521943212475101</v>
+        <v>0.2066097140968299</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.262839537079316</v>
+        <v>1.416240008561431</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8781263151693111</v>
+        <v>0.908848071104785</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.041804036774352</v>
+        <v>1.005177062391624</v>
       </c>
       <c r="C13">
-        <v>0.6929790472064781</v>
+        <v>0.2713831055656044</v>
       </c>
       <c r="D13">
-        <v>0.1117593939258512</v>
+        <v>0.03596487739173426</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4138359114747061</v>
+        <v>0.323258110749002</v>
       </c>
       <c r="G13">
-        <v>0.271429571564866</v>
+        <v>0.1773087300727028</v>
       </c>
       <c r="H13">
-        <v>0.1649540415651813</v>
+        <v>0.3253384056566588</v>
       </c>
       <c r="I13">
-        <v>0.06527961469317489</v>
+        <v>0.2068564924377636</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.225447586309627</v>
+        <v>1.409223422581661</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8740445785484781</v>
+        <v>0.9086502352623995</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.992120590552361</v>
+        <v>0.9882796101801432</v>
       </c>
       <c r="C14">
-        <v>0.6830247510483218</v>
+        <v>0.2678384890664915</v>
       </c>
       <c r="D14">
-        <v>0.1098727969247477</v>
+        <v>0.03535379668933558</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4069570512856018</v>
+        <v>0.3223081497939901</v>
       </c>
       <c r="G14">
-        <v>0.2664376559725667</v>
+        <v>0.1767032947529188</v>
       </c>
       <c r="H14">
-        <v>0.1637385574056793</v>
+        <v>0.3256743191525757</v>
       </c>
       <c r="I14">
-        <v>0.06550296317321269</v>
+        <v>0.207667494605948</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.104561541819777</v>
+        <v>1.386361390068828</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8608511342317797</v>
+        <v>0.9080287831003773</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.961670220907649</v>
+        <v>0.9779236606738664</v>
       </c>
       <c r="C15">
-        <v>0.6769204405884182</v>
+        <v>0.2656660823230368</v>
       </c>
       <c r="D15">
-        <v>0.1087168919306123</v>
+        <v>0.03497932775665902</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4027731836207309</v>
+        <v>0.3217321476784747</v>
       </c>
       <c r="G15">
-        <v>0.2634079500926987</v>
+        <v>0.1763368796327498</v>
       </c>
       <c r="H15">
-        <v>0.1630083148532435</v>
+        <v>0.325884368503516</v>
       </c>
       <c r="I15">
-        <v>0.06566025282392651</v>
+        <v>0.2081690204414031</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.031298741714608</v>
+        <v>1.372373414796328</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8528588842989677</v>
+        <v>0.9076663493209622</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.78691583329055</v>
+        <v>0.9184910122876886</v>
       </c>
       <c r="C16">
-        <v>0.6418400472109909</v>
+        <v>0.2531984837577284</v>
       </c>
       <c r="D16">
-        <v>0.1020883962263781</v>
+        <v>0.03283092588199565</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3792307521604599</v>
+        <v>0.3185212351075108</v>
       </c>
       <c r="G16">
-        <v>0.2464541168471328</v>
+        <v>0.1743048083984178</v>
       </c>
       <c r="H16">
-        <v>0.1590343043410414</v>
+        <v>0.3271538232021243</v>
       </c>
       <c r="I16">
-        <v>0.06686267060145212</v>
+        <v>0.2111159119770285</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.622362442062013</v>
+        <v>1.292448824537701</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8083633398250925</v>
+        <v>0.9058681424079253</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.679498049311633</v>
+        <v>0.8819551995778738</v>
       </c>
       <c r="C17">
-        <v>0.620239180409186</v>
+        <v>0.245534009234774</v>
       </c>
       <c r="D17">
-        <v>0.09801827878003166</v>
+        <v>0.03151079680542068</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3651540146420515</v>
+        <v>0.3166315242611901</v>
       </c>
       <c r="G17">
-        <v>0.2363964320672025</v>
+        <v>0.1731183772859737</v>
       </c>
       <c r="H17">
-        <v>0.1567760330518482</v>
+        <v>0.3279912077825031</v>
       </c>
       <c r="I17">
-        <v>0.06785574008157624</v>
+        <v>0.212988562298154</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.380142822996362</v>
+        <v>1.243621321416953</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7821683323374771</v>
+        <v>0.9050131248409485</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.617642009732037</v>
+        <v>0.8609135923857707</v>
       </c>
       <c r="C18">
-        <v>0.6077883567706124</v>
+        <v>0.2411198923839777</v>
       </c>
       <c r="D18">
-        <v>0.09567595002407359</v>
+        <v>0.03075072228205045</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3571839381889461</v>
+        <v>0.3155739782690503</v>
       </c>
       <c r="G18">
-        <v>0.2307295874521742</v>
+        <v>0.1724579952249385</v>
       </c>
       <c r="H18">
-        <v>0.1555400067008677</v>
+        <v>0.3284943695986087</v>
       </c>
       <c r="I18">
-        <v>0.06851585290708506</v>
+        <v>0.214089414962805</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.243618651193088</v>
+        <v>1.215609552215199</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7674829755876971</v>
+        <v>0.9046122826219687</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.596686678439937</v>
+        <v>0.8537846636990025</v>
       </c>
       <c r="C19">
-        <v>0.6035684018141296</v>
+        <v>0.2396243829298328</v>
       </c>
       <c r="D19">
-        <v>0.09488265884701974</v>
+        <v>0.03049324359389516</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3545064177741608</v>
+        <v>0.3152209489220255</v>
       </c>
       <c r="G19">
-        <v>0.228830455091142</v>
+        <v>0.1722381745544439</v>
       </c>
       <c r="H19">
-        <v>0.1551320229217126</v>
+        <v>0.3286684257326016</v>
       </c>
       <c r="I19">
-        <v>0.06875418490670171</v>
+        <v>0.2144662178184671</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.197840888414618</v>
+        <v>1.206137485857781</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7625741440440947</v>
+        <v>0.9044921604521932</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.690940437995323</v>
+        <v>0.8858473270969967</v>
       </c>
       <c r="C20">
-        <v>0.6225414399317231</v>
+        <v>0.2463505007970355</v>
       </c>
       <c r="D20">
-        <v>0.09845168611310839</v>
+        <v>0.03165140707540104</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3666392440188062</v>
+        <v>0.3168296465356519</v>
       </c>
       <c r="G20">
-        <v>0.2374546977454699</v>
+        <v>0.1732423936217842</v>
       </c>
       <c r="H20">
-        <v>0.157009854391255</v>
+        <v>0.3278998390265428</v>
       </c>
       <c r="I20">
-        <v>0.06774071569762974</v>
+        <v>0.2127867554701073</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.40563030077648</v>
+        <v>1.248811535094447</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.784916861244696</v>
+        <v>0.9050947253510486</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.006717583598061</v>
+        <v>0.9932440081839218</v>
       </c>
       <c r="C21">
-        <v>0.6859500532235074</v>
+        <v>0.2688798854475181</v>
       </c>
       <c r="D21">
-        <v>0.1104270015279809</v>
+        <v>0.0355333202701047</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4089713128208956</v>
+        <v>0.3225859513670457</v>
       </c>
       <c r="G21">
-        <v>0.267898018612712</v>
+        <v>0.1768802017430033</v>
       </c>
       <c r="H21">
-        <v>0.1640925792904966</v>
+        <v>0.3255747585208866</v>
       </c>
       <c r="I21">
-        <v>0.06543305983506897</v>
+        <v>0.2074282904912224</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.139902622818326</v>
+        <v>1.393073242345338</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8647076454378464</v>
+        <v>0.9082075195296113</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.212314274351797</v>
+        <v>1.063177441634309</v>
       </c>
       <c r="C22">
-        <v>0.7270852966191796</v>
+        <v>0.2835496854574728</v>
       </c>
       <c r="D22">
-        <v>0.1182399084970172</v>
+        <v>0.03806307359080563</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4379422248139591</v>
+        <v>0.326610872604455</v>
       </c>
       <c r="G22">
-        <v>0.2890251653449667</v>
+        <v>0.1794558107782365</v>
       </c>
       <c r="H22">
-        <v>0.169351868773731</v>
+        <v>0.324247256887773</v>
       </c>
       <c r="I22">
-        <v>0.06482799174192877</v>
+        <v>0.2041392417748895</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.653780744880194</v>
+        <v>1.48805212044563</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9207794101317575</v>
+        <v>0.9110569015155079</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.102663603492715</v>
+        <v>1.025876822987982</v>
       </c>
       <c r="C23">
-        <v>0.7051627138999095</v>
+        <v>0.2757252922541795</v>
       </c>
       <c r="D23">
-        <v>0.1140714049912503</v>
+        <v>0.03671358570213101</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.422351075605583</v>
+        <v>0.3244385812989137</v>
       </c>
       <c r="G23">
-        <v>0.2776270171048765</v>
+        <v>0.178062938210104</v>
       </c>
       <c r="H23">
-        <v>0.1664834910874617</v>
+        <v>0.3249381736675758</v>
       </c>
       <c r="I23">
-        <v>0.06506235026186857</v>
+        <v>0.2058751054462107</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.375877970070931</v>
+        <v>1.437294019813862</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8904656669762119</v>
+        <v>0.9094613110235059</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.685767644628982</v>
+        <v>0.8840878103391674</v>
       </c>
       <c r="C24">
-        <v>0.6215006880131</v>
+        <v>0.2459813889321936</v>
       </c>
       <c r="D24">
-        <v>0.0982557500042418</v>
+        <v>0.03158784063894871</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3659673911031476</v>
+        <v>0.316739985534376</v>
       </c>
       <c r="G24">
-        <v>0.2369758980958778</v>
+        <v>0.1731862582272967</v>
       </c>
       <c r="H24">
-        <v>0.1569039505045851</v>
+        <v>0.3279410791359325</v>
       </c>
       <c r="I24">
-        <v>0.06779244159577758</v>
+        <v>0.2128779168482211</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.394098995371451</v>
+        <v>1.246464853733627</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7836730903631661</v>
+        <v>0.9050575512490866</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.233337836625935</v>
+        <v>0.7301146861109942</v>
       </c>
       <c r="C25">
-        <v>0.5302579038724389</v>
+        <v>0.2136813574055623</v>
       </c>
       <c r="D25">
-        <v>0.08114582288660444</v>
+        <v>0.02602964878838776</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3099101227282191</v>
+        <v>0.3095576503645532</v>
       </c>
       <c r="G25">
-        <v>0.1975680312675223</v>
+        <v>0.1687666781804822</v>
       </c>
       <c r="H25">
-        <v>0.1489444543556786</v>
+        <v>0.3320027013085394</v>
       </c>
       <c r="I25">
-        <v>0.0740917039884863</v>
+        <v>0.2213388610178697</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.439446701626778</v>
+        <v>1.043368696418526</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6828403623549235</v>
+        <v>0.9037810758933347</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6159107092382214</v>
+        <v>1.898194479076068</v>
       </c>
       <c r="C2">
-        <v>0.1897266710568601</v>
+        <v>0.4624401188252136</v>
       </c>
       <c r="D2">
-        <v>0.02191339196804876</v>
+        <v>0.06850482565619842</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3052248113244787</v>
+        <v>0.2719354109714018</v>
       </c>
       <c r="G2">
-        <v>0.1662234647975112</v>
+        <v>0.1715833186460429</v>
       </c>
       <c r="H2">
-        <v>0.3356984809392287</v>
+        <v>0.1448089404949968</v>
       </c>
       <c r="I2">
-        <v>0.2283417952682925</v>
+        <v>0.08113011856054797</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8958937206540156</v>
+        <v>2.79314815510719</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9057982176320536</v>
+        <v>0.6186119660685705</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5380219922801643</v>
+        <v>1.669882718094641</v>
       </c>
       <c r="C3">
-        <v>0.1733923610344732</v>
+        <v>0.4161563342130137</v>
       </c>
       <c r="D3">
-        <v>0.01910969445793853</v>
+        <v>0.05990917511667959</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3028798491082725</v>
+        <v>0.2479198754784306</v>
       </c>
       <c r="G3">
-        <v>0.1649373110469767</v>
+        <v>0.1555320244954288</v>
       </c>
       <c r="H3">
-        <v>0.3386419939305583</v>
+        <v>0.1429465834361281</v>
       </c>
       <c r="I3">
-        <v>0.2335664298988398</v>
+        <v>0.08719325198373618</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.797093620861375</v>
+        <v>2.378776722571359</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9089946253170069</v>
+        <v>0.580341556655199</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4899664346918939</v>
+        <v>1.529130054427924</v>
       </c>
       <c r="C4">
-        <v>0.1633164876076023</v>
+        <v>0.3875969675189594</v>
       </c>
       <c r="D4">
-        <v>0.0173815707484053</v>
+        <v>0.05461642092884489</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3017303346825528</v>
+        <v>0.2339234565772728</v>
       </c>
       <c r="G4">
-        <v>0.1643614004117993</v>
+        <v>0.1463484365380054</v>
       </c>
       <c r="H4">
-        <v>0.3406654445999209</v>
+        <v>0.1422267909320212</v>
       </c>
       <c r="I4">
-        <v>0.2370092601481257</v>
+        <v>0.0914941706372403</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7369500878308202</v>
+        <v>2.133035038606891</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9118546664451799</v>
+        <v>0.5591470864528816</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4703271999164258</v>
+        <v>1.47163165831941</v>
       </c>
       <c r="C5">
-        <v>0.1591992833304232</v>
+        <v>0.3759258463224455</v>
       </c>
       <c r="D5">
-        <v>0.01667573458360039</v>
+        <v>0.05245571231104407</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3013347176755374</v>
+        <v>0.2283946130871115</v>
       </c>
       <c r="G5">
-        <v>0.1641802016376701</v>
+        <v>0.1427617818649622</v>
       </c>
       <c r="H5">
-        <v>0.3415443152383162</v>
+        <v>0.1420344848146797</v>
       </c>
       <c r="I5">
-        <v>0.2384711145919205</v>
+        <v>0.09338398550926286</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7125658685623932</v>
+        <v>2.03470425588857</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.913245144734006</v>
+        <v>0.5510497761718227</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4670627850896949</v>
+        <v>1.46207566369597</v>
       </c>
       <c r="C6">
-        <v>0.1585149627185558</v>
+        <v>0.3739859421096696</v>
       </c>
       <c r="D6">
-        <v>0.01655843540295621</v>
+        <v>0.05209669158777075</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3012734186244757</v>
+        <v>0.2274867305916146</v>
       </c>
       <c r="G6">
-        <v>0.1641533364143584</v>
+        <v>0.1421752564813232</v>
       </c>
       <c r="H6">
-        <v>0.341693529114302</v>
+        <v>0.1420084986043335</v>
       </c>
       <c r="I6">
-        <v>0.2387174046267599</v>
+        <v>0.093705841986095</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.708524248516639</v>
+        <v>2.0184759764349</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9134896014193004</v>
+        <v>0.5497367052621911</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4897017979854184</v>
+        <v>1.528355177308782</v>
       </c>
       <c r="C7">
-        <v>0.1632610062551976</v>
+        <v>0.3874396970565215</v>
       </c>
       <c r="D7">
-        <v>0.01737205804388964</v>
+        <v>0.05458729665760131</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3017247046492315</v>
+        <v>0.2338482021645945</v>
       </c>
       <c r="G7">
-        <v>0.1643587404842464</v>
+        <v>0.1462994519421912</v>
       </c>
       <c r="H7">
-        <v>0.3406770775704544</v>
+        <v>0.1422237954668262</v>
       </c>
       <c r="I7">
-        <v>0.2370287371071758</v>
+        <v>0.0915191124551562</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7366207364426316</v>
+        <v>2.131702037086413</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9118725088576696</v>
+        <v>0.5590357489355</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5891039301068872</v>
+        <v>1.819592111448429</v>
       </c>
       <c r="C8">
-        <v>0.1841045541998767</v>
+        <v>0.4465123262959025</v>
       </c>
       <c r="D8">
-        <v>0.0209480898591039</v>
+        <v>0.06554409850175347</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3043559067803372</v>
+        <v>0.2634908820157023</v>
       </c>
       <c r="G8">
-        <v>0.1657354627813561</v>
+        <v>0.1659010952852853</v>
       </c>
       <c r="H8">
-        <v>0.3366685194313348</v>
+        <v>0.1440754185235633</v>
       </c>
       <c r="I8">
-        <v>0.230094385473361</v>
+        <v>0.08309556667282969</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8617158016676143</v>
+        <v>2.648228315261292</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9067136664298374</v>
+        <v>0.6049134328983143</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7821140693481539</v>
+        <v>2.386068912992073</v>
       </c>
       <c r="C9">
-        <v>0.2245894104225954</v>
+        <v>0.5611039918263714</v>
       </c>
       <c r="D9">
-        <v>0.02790572740148889</v>
+        <v>0.08691586762755321</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3118279927343721</v>
+        <v>0.3282317065053846</v>
       </c>
       <c r="G9">
-        <v>0.1701441827593868</v>
+        <v>0.2103236838257061</v>
       </c>
       <c r="H9">
-        <v>0.3305248442795516</v>
+        <v>0.1513381525851329</v>
       </c>
       <c r="I9">
-        <v>0.2183681924949603</v>
+        <v>0.07156734438216894</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.111442036355726</v>
+        <v>3.750389379419687</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.903749691253438</v>
+        <v>0.7151074524562233</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9226562708977326</v>
+        <v>2.799162791615402</v>
       </c>
       <c r="C10">
-        <v>0.2540722671719209</v>
+        <v>0.6443010564596818</v>
       </c>
       <c r="D10">
-        <v>0.03298145581587164</v>
+        <v>0.1025526434594326</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3187408480103997</v>
+        <v>0.3808547070719044</v>
       </c>
       <c r="G10">
-        <v>0.1744431792544177</v>
+        <v>0.2476183299975148</v>
       </c>
       <c r="H10">
-        <v>0.3270611893598456</v>
+        <v>0.1593007314404247</v>
       </c>
       <c r="I10">
-        <v>0.2109054533406614</v>
+        <v>0.06676175345820923</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.29803037629442</v>
+        <v>4.650406592518394</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9059780463411897</v>
+        <v>0.8114057045360283</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.986299576708916</v>
+        <v>2.986298589254659</v>
       </c>
       <c r="C11">
-        <v>0.2674231308457422</v>
+        <v>0.6818578287114292</v>
       </c>
       <c r="D11">
-        <v>0.03528219647709818</v>
+        <v>0.1096517706283038</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3221976521285441</v>
+        <v>0.4061552277069396</v>
       </c>
       <c r="G11">
-        <v>0.1766329622975107</v>
+        <v>0.2658566413068684</v>
       </c>
       <c r="H11">
-        <v>0.3257142324450939</v>
+        <v>0.1635980728067068</v>
       </c>
       <c r="I11">
-        <v>0.2077631192850955</v>
+        <v>0.0655318379387122</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.383685535601131</v>
+        <v>5.090505958071674</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9079583942231864</v>
+        <v>0.8593175379855609</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.010356076524033</v>
+        <v>3.057031366499416</v>
       </c>
       <c r="C12">
-        <v>0.2724695120685112</v>
+        <v>0.6960284828472822</v>
       </c>
       <c r="D12">
-        <v>0.03615218944526077</v>
+        <v>0.1123377618399957</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3235517474076488</v>
+        <v>0.4159572361180182</v>
       </c>
       <c r="G12">
-        <v>0.1774961475698902</v>
+        <v>0.2729716405432328</v>
       </c>
       <c r="H12">
-        <v>0.3252371165877719</v>
+        <v>0.165332528877812</v>
       </c>
       <c r="I12">
-        <v>0.2066097140968299</v>
+        <v>0.0652194321247368</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.416240008561431</v>
+        <v>5.26283953707933</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.908848071104785</v>
+        <v>0.8781263151694247</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.005177062391624</v>
+        <v>3.041804036774352</v>
       </c>
       <c r="C13">
-        <v>0.2713831055656044</v>
+        <v>0.6929790472064781</v>
       </c>
       <c r="D13">
-        <v>0.03596487739173426</v>
+        <v>0.1117593939260786</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.323258110749002</v>
+        <v>0.4138359114747132</v>
       </c>
       <c r="G13">
-        <v>0.1773087300727028</v>
+        <v>0.2714295715649229</v>
       </c>
       <c r="H13">
-        <v>0.3253384056566588</v>
+        <v>0.1649540415651813</v>
       </c>
       <c r="I13">
-        <v>0.2068564924377636</v>
+        <v>0.06527961469317489</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.409223422581661</v>
+        <v>5.225447586309642</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9086502352623995</v>
+        <v>0.8740445785485349</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9882796101801432</v>
+        <v>2.992120590552247</v>
       </c>
       <c r="C14">
-        <v>0.2678384890664915</v>
+        <v>0.6830247510482934</v>
       </c>
       <c r="D14">
-        <v>0.03535379668933558</v>
+        <v>0.1098727969248188</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3223081497939901</v>
+        <v>0.4069570512855947</v>
       </c>
       <c r="G14">
-        <v>0.1767032947529188</v>
+        <v>0.2664376559725241</v>
       </c>
       <c r="H14">
-        <v>0.3256743191525757</v>
+        <v>0.1637385574056793</v>
       </c>
       <c r="I14">
-        <v>0.207667494605948</v>
+        <v>0.06550296317320914</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.386361390068828</v>
+        <v>5.104561541819763</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9080287831003773</v>
+        <v>0.8608511342317797</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9779236606738664</v>
+        <v>2.961670220907706</v>
       </c>
       <c r="C15">
-        <v>0.2656660823230368</v>
+        <v>0.6769204405885887</v>
       </c>
       <c r="D15">
-        <v>0.03497932775665902</v>
+        <v>0.1087168919305412</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3217321476784747</v>
+        <v>0.4027731836207238</v>
       </c>
       <c r="G15">
-        <v>0.1763368796327498</v>
+        <v>0.2634079500926987</v>
       </c>
       <c r="H15">
-        <v>0.325884368503516</v>
+        <v>0.1630083148532435</v>
       </c>
       <c r="I15">
-        <v>0.2081690204414031</v>
+        <v>0.06566025282392829</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.372373414796328</v>
+        <v>5.031298741714579</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9076663493209622</v>
+        <v>0.8528588842989393</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9184910122876886</v>
+        <v>2.786915833290664</v>
       </c>
       <c r="C16">
-        <v>0.2531984837577284</v>
+        <v>0.6418400472110477</v>
       </c>
       <c r="D16">
-        <v>0.03283092588199565</v>
+        <v>0.1020883962264918</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3185212351075108</v>
+        <v>0.3792307521604883</v>
       </c>
       <c r="G16">
-        <v>0.1743048083984178</v>
+        <v>0.2464541168471186</v>
       </c>
       <c r="H16">
-        <v>0.3271538232021243</v>
+        <v>0.1590343043411622</v>
       </c>
       <c r="I16">
-        <v>0.2111159119770285</v>
+        <v>0.06686267060145212</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.292448824537701</v>
+        <v>4.622362442061998</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9058681424079253</v>
+        <v>0.8083633398250925</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8819551995778738</v>
+        <v>2.679498049311576</v>
       </c>
       <c r="C17">
-        <v>0.245534009234774</v>
+        <v>0.620239180409186</v>
       </c>
       <c r="D17">
-        <v>0.03151079680542068</v>
+        <v>0.09801827878018798</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3166315242611901</v>
+        <v>0.3651540146420587</v>
       </c>
       <c r="G17">
-        <v>0.1731183772859737</v>
+        <v>0.2363964320671528</v>
       </c>
       <c r="H17">
-        <v>0.3279912077825031</v>
+        <v>0.1567760330518553</v>
       </c>
       <c r="I17">
-        <v>0.212988562298154</v>
+        <v>0.06785574008156203</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.243621321416953</v>
+        <v>4.380142822996362</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9050131248409485</v>
+        <v>0.7821683323374771</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8609135923857707</v>
+        <v>2.617642009731981</v>
       </c>
       <c r="C18">
-        <v>0.2411198923839777</v>
+        <v>0.6077883567708398</v>
       </c>
       <c r="D18">
-        <v>0.03075072228205045</v>
+        <v>0.09567595002414464</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3155739782690503</v>
+        <v>0.3571839381889461</v>
       </c>
       <c r="G18">
-        <v>0.1724579952249385</v>
+        <v>0.230729587452231</v>
       </c>
       <c r="H18">
-        <v>0.3284943695986087</v>
+        <v>0.1555400067008677</v>
       </c>
       <c r="I18">
-        <v>0.214089414962805</v>
+        <v>0.06851585290708506</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.215609552215199</v>
+        <v>4.243618651193074</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9046122826219687</v>
+        <v>0.7674829755876402</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8537846636990025</v>
+        <v>2.596686678439823</v>
       </c>
       <c r="C19">
-        <v>0.2396243829298328</v>
+        <v>0.603568401814357</v>
       </c>
       <c r="D19">
-        <v>0.03049324359389516</v>
+        <v>0.09488265884699842</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3152209489220255</v>
+        <v>0.3545064177741466</v>
       </c>
       <c r="G19">
-        <v>0.1722381745544439</v>
+        <v>0.2288304550911207</v>
       </c>
       <c r="H19">
-        <v>0.3286684257326016</v>
+        <v>0.1551320229215989</v>
       </c>
       <c r="I19">
-        <v>0.2144662178184671</v>
+        <v>0.06875418490668395</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.206137485857781</v>
+        <v>4.197840888414646</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9044921604521932</v>
+        <v>0.7625741440440947</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8858473270969967</v>
+        <v>2.690940437995323</v>
       </c>
       <c r="C20">
-        <v>0.2463505007970355</v>
+        <v>0.6225414399316946</v>
       </c>
       <c r="D20">
-        <v>0.03165140707540104</v>
+        <v>0.09845168611300892</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3168296465356519</v>
+        <v>0.3666392440188062</v>
       </c>
       <c r="G20">
-        <v>0.1732423936217842</v>
+        <v>0.2374546977454131</v>
       </c>
       <c r="H20">
-        <v>0.3278998390265428</v>
+        <v>0.157009854391255</v>
       </c>
       <c r="I20">
-        <v>0.2127867554701073</v>
+        <v>0.06774071569761375</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.248811535094447</v>
+        <v>4.405630300776465</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9050947253510486</v>
+        <v>0.784916861244767</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9932440081839218</v>
+        <v>3.006717583598174</v>
       </c>
       <c r="C21">
-        <v>0.2688798854475181</v>
+        <v>0.6859500532235074</v>
       </c>
       <c r="D21">
-        <v>0.0355333202701047</v>
+        <v>0.1104270015276967</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3225859513670457</v>
+        <v>0.4089713128208956</v>
       </c>
       <c r="G21">
-        <v>0.1768802017430033</v>
+        <v>0.2678980186127689</v>
       </c>
       <c r="H21">
-        <v>0.3255747585208866</v>
+        <v>0.1640925792904966</v>
       </c>
       <c r="I21">
-        <v>0.2074282904912224</v>
+        <v>0.06543305983508141</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.393073242345338</v>
+        <v>5.139902622818326</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9082075195296113</v>
+        <v>0.8647076454378464</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.063177441634309</v>
+        <v>3.212314274351854</v>
       </c>
       <c r="C22">
-        <v>0.2835496854574728</v>
+        <v>0.7270852966193786</v>
       </c>
       <c r="D22">
-        <v>0.03806307359080563</v>
+        <v>0.1182399084973014</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.326610872604455</v>
+        <v>0.4379422248139875</v>
       </c>
       <c r="G22">
-        <v>0.1794558107782365</v>
+        <v>0.289025165344853</v>
       </c>
       <c r="H22">
-        <v>0.324247256887773</v>
+        <v>0.169351868773731</v>
       </c>
       <c r="I22">
-        <v>0.2041392417748895</v>
+        <v>0.06482799174192877</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.48805212044563</v>
+        <v>5.65378074488018</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9110569015155079</v>
+        <v>0.9207794101316722</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.025876822987982</v>
+        <v>3.102663603492942</v>
       </c>
       <c r="C23">
-        <v>0.2757252922541795</v>
+        <v>0.7051627139001369</v>
       </c>
       <c r="D23">
-        <v>0.03671358570213101</v>
+        <v>0.1140714049911935</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3244385812989137</v>
+        <v>0.4223510756055902</v>
       </c>
       <c r="G23">
-        <v>0.178062938210104</v>
+        <v>0.2776270171048765</v>
       </c>
       <c r="H23">
-        <v>0.3249381736675758</v>
+        <v>0.1664834910874617</v>
       </c>
       <c r="I23">
-        <v>0.2058751054462107</v>
+        <v>0.0650623502618668</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.437294019813862</v>
+        <v>5.375877970070903</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9094613110235059</v>
+        <v>0.8904656669762119</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8840878103391674</v>
+        <v>2.685767644628925</v>
       </c>
       <c r="C24">
-        <v>0.2459813889321936</v>
+        <v>0.621500688012901</v>
       </c>
       <c r="D24">
-        <v>0.03158784063894871</v>
+        <v>0.09825575000422759</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.316739985534376</v>
+        <v>0.3659673911031547</v>
       </c>
       <c r="G24">
-        <v>0.1731862582272967</v>
+        <v>0.2369758980959773</v>
       </c>
       <c r="H24">
-        <v>0.3279410791359325</v>
+        <v>0.1569039505045779</v>
       </c>
       <c r="I24">
-        <v>0.2128779168482211</v>
+        <v>0.0677924415957758</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.246464853733627</v>
+        <v>4.394098995371451</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9050575512490866</v>
+        <v>0.7836730903631803</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7301146861109942</v>
+        <v>2.233337836625878</v>
       </c>
       <c r="C25">
-        <v>0.2136813574055623</v>
+        <v>0.5302579038719273</v>
       </c>
       <c r="D25">
-        <v>0.02602964878838776</v>
+        <v>0.08114582288648364</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3095576503645532</v>
+        <v>0.3099101227282404</v>
       </c>
       <c r="G25">
-        <v>0.1687666781804822</v>
+        <v>0.1975680312675721</v>
       </c>
       <c r="H25">
-        <v>0.3320027013085394</v>
+        <v>0.1489444543557923</v>
       </c>
       <c r="I25">
-        <v>0.2213388610178697</v>
+        <v>0.07409170398850229</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.043368696418526</v>
+        <v>3.439446701626764</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9037810758933347</v>
+        <v>0.6828403623549946</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.898194479076068</v>
+        <v>1.046608864674596</v>
       </c>
       <c r="C2">
-        <v>0.4624401188252136</v>
+        <v>0.2160122539503249</v>
       </c>
       <c r="D2">
-        <v>0.06850482565619842</v>
+        <v>0.1169503079651264</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2719354109714018</v>
+        <v>0.2112498711621953</v>
       </c>
       <c r="G2">
-        <v>0.1715833186460429</v>
+        <v>0.1272521275028602</v>
       </c>
       <c r="H2">
-        <v>0.1448089404949968</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.08113011856054797</v>
+        <v>0.0007438948922033894</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1756348528525926</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1594867744155328</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.79314815510719</v>
+        <v>1.168128150940504</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6186119660685705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.5861385324667978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.669882718094641</v>
+        <v>0.9148147825166291</v>
       </c>
       <c r="C3">
-        <v>0.4161563342130137</v>
+        <v>0.1963649711016728</v>
       </c>
       <c r="D3">
-        <v>0.05990917511667959</v>
+        <v>0.102975778254347</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2479198754784306</v>
+        <v>0.210571606484141</v>
       </c>
       <c r="G3">
-        <v>0.1555320244954288</v>
+        <v>0.1325331466266455</v>
       </c>
       <c r="H3">
-        <v>0.1429465834361281</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.08719325198373618</v>
+        <v>0.0004728880303717098</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1826758288911563</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1693394530722747</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.378776722571359</v>
+        <v>1.027237733993474</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.580341556655199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.6118202705831735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.529130054427924</v>
+        <v>0.8335528812816904</v>
       </c>
       <c r="C4">
-        <v>0.3875969675189594</v>
+        <v>0.1844336091088365</v>
       </c>
       <c r="D4">
-        <v>0.05461642092884489</v>
+        <v>0.09440631995619242</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2339234565772728</v>
+        <v>0.2106009436598164</v>
       </c>
       <c r="G4">
-        <v>0.1463484365380054</v>
+        <v>0.1361640201564533</v>
       </c>
       <c r="H4">
-        <v>0.1422267909320212</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0914941706372403</v>
+        <v>0.000426947579393655</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1872696829544118</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1757045006054208</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.133035038606891</v>
+        <v>0.9406684848216287</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5591470864528816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.6289726825599544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.47163165831941</v>
+        <v>0.7999994171656795</v>
       </c>
       <c r="C5">
-        <v>0.3759258463224455</v>
+        <v>0.1800248666745574</v>
       </c>
       <c r="D5">
-        <v>0.05245571231104407</v>
+        <v>0.09100013552178865</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2283946130871115</v>
+        <v>0.2104742339030246</v>
       </c>
       <c r="G5">
-        <v>0.1427617818649622</v>
+        <v>0.1375511876943776</v>
       </c>
       <c r="H5">
-        <v>0.1420344848146797</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.09338398550926286</v>
+        <v>0.0005018402565899471</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1891038494352379</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1782705340277491</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.03470425588857</v>
+        <v>0.9057756278526199</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5510497761718227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.6356851899995348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.46207566369597</v>
+        <v>0.7939923934246451</v>
       </c>
       <c r="C6">
-        <v>0.3739859421096696</v>
+        <v>0.1798137172005596</v>
       </c>
       <c r="D6">
-        <v>0.05209669158777075</v>
+        <v>0.09053753591376079</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2274867305916146</v>
+        <v>0.2101583170119881</v>
       </c>
       <c r="G6">
-        <v>0.1421752564813232</v>
+        <v>0.1375598118520145</v>
       </c>
       <c r="H6">
-        <v>0.1420084986043335</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.093705841986095</v>
+        <v>0.000602659317920029</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1892850659399059</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1785738475363798</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.0184759764349</v>
+        <v>0.9004769516446345</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5497367052621911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.6360709138824063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.528355177308782</v>
+        <v>0.8319222345049866</v>
       </c>
       <c r="C7">
-        <v>0.3874396970565215</v>
+        <v>0.1857953774113099</v>
       </c>
       <c r="D7">
-        <v>0.05458729665760131</v>
+        <v>0.0946422297112619</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2338482021645945</v>
+        <v>0.2097772060189946</v>
       </c>
       <c r="G7">
-        <v>0.1462994519421912</v>
+        <v>0.1355633500438422</v>
       </c>
       <c r="H7">
-        <v>0.1422237954668262</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0915191124551562</v>
+        <v>0.0006499167166067465</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1869483251801611</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1753939418224899</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.131702037086413</v>
+        <v>0.9415593372304443</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5590357489355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.627024190952433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.819592111448429</v>
+        <v>0.9996620175164139</v>
       </c>
       <c r="C8">
-        <v>0.4465123262959025</v>
+        <v>0.2111115474513809</v>
       </c>
       <c r="D8">
-        <v>0.06554409850175347</v>
+        <v>0.1125058844248485</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2634908820157023</v>
+        <v>0.2098410029544198</v>
       </c>
       <c r="G8">
-        <v>0.1659010952852853</v>
+        <v>0.1281812532869502</v>
       </c>
       <c r="H8">
-        <v>0.1440754185235633</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.08309556667282969</v>
+        <v>0.0008918312444148313</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1775570043675678</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1623781976241494</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.648228315261292</v>
+        <v>1.121381802271742</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6049134328983143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.5920442684548348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.386068912992073</v>
+        <v>1.32813896832107</v>
       </c>
       <c r="C9">
-        <v>0.5611039918263714</v>
+        <v>0.2593447116136929</v>
       </c>
       <c r="D9">
-        <v>0.08691586762755321</v>
+        <v>0.1471508810322462</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3282317065053846</v>
+        <v>0.2151576755840026</v>
       </c>
       <c r="G9">
-        <v>0.2103236838257061</v>
+        <v>0.1180534039924268</v>
       </c>
       <c r="H9">
-        <v>0.1513381525851329</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.07156734438216894</v>
+        <v>0.00205868423574973</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1619657128795708</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1400413680594799</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.750389379419687</v>
+        <v>1.471304146654887</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7151074524562233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.5385355947982688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.799162791615402</v>
+        <v>1.567469104802285</v>
       </c>
       <c r="C10">
-        <v>0.6443010564596818</v>
+        <v>0.2964097555253744</v>
       </c>
       <c r="D10">
-        <v>0.1025526434594326</v>
+        <v>0.1728839179084503</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3808547070719044</v>
+        <v>0.2212276843704117</v>
       </c>
       <c r="G10">
-        <v>0.2476183299975148</v>
+        <v>0.1125624890230803</v>
       </c>
       <c r="H10">
-        <v>0.1593007314404247</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.06676175345820923</v>
+        <v>0.00376415214051562</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1518139813651977</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1252078031434953</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.650406592518394</v>
+        <v>1.729357338281062</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8114057045360283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.506055980245911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.986298589254659</v>
+        <v>1.67409618514472</v>
       </c>
       <c r="C11">
-        <v>0.6818578287114292</v>
+        <v>0.3159557074174302</v>
       </c>
       <c r="D11">
-        <v>0.1096517706283038</v>
+        <v>0.1851128021646247</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4061552277069396</v>
+        <v>0.2233103956265978</v>
       </c>
       <c r="G11">
-        <v>0.2658566413068684</v>
+        <v>0.1096585904674647</v>
       </c>
       <c r="H11">
-        <v>0.1635980728067068</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0655318379387122</v>
+        <v>0.005083717125281773</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1470210904761977</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1183998713774779</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.090505958071674</v>
+        <v>1.849234678749497</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8593175379855609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.4900467624240221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.057031366499416</v>
+        <v>1.715495268706263</v>
       </c>
       <c r="C12">
-        <v>0.6960284828472822</v>
+        <v>0.3221016203335267</v>
       </c>
       <c r="D12">
-        <v>0.1123377618399957</v>
+        <v>0.1894972898762433</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4159572361180182</v>
+        <v>0.2248890570591655</v>
       </c>
       <c r="G12">
-        <v>0.2729716405432328</v>
+        <v>0.1091534441950088</v>
       </c>
       <c r="H12">
-        <v>0.165332528877812</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0652194321247368</v>
+        <v>0.005424890302249352</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1455361130808193</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1161382348823121</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.26283953707933</v>
+        <v>1.893429764065587</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8781263151694247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.485935443502882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.041804036774352</v>
+        <v>1.706793438321313</v>
       </c>
       <c r="C13">
-        <v>0.6929790472064781</v>
+        <v>0.3205143800891364</v>
       </c>
       <c r="D13">
-        <v>0.1117593939260786</v>
+        <v>0.1885014423586711</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4138359114747132</v>
+        <v>0.2246839305848241</v>
       </c>
       <c r="G13">
-        <v>0.2714295715649229</v>
+        <v>0.1093603559908374</v>
       </c>
       <c r="H13">
-        <v>0.1649540415651813</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.06527961469317489</v>
+        <v>0.005309567521146974</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1459090730786059</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1166725737292627</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.225447586309642</v>
+        <v>1.883661501174998</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8740445785485349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.4871403322949561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.992120590552247</v>
+        <v>1.677593088477465</v>
       </c>
       <c r="C14">
-        <v>0.6830247510482934</v>
+        <v>0.3163493505126809</v>
       </c>
       <c r="D14">
-        <v>0.1098727969248188</v>
+        <v>0.1854516128477002</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4069570512855947</v>
+        <v>0.2234974914010195</v>
       </c>
       <c r="G14">
-        <v>0.2664376559725241</v>
+        <v>0.1096586592858344</v>
       </c>
       <c r="H14">
-        <v>0.1637385574056793</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.06550296317320914</v>
+        <v>0.005093677361844406</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1469214754838966</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1182338652154629</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.104561541819763</v>
+        <v>1.852764445899425</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8608511342317797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.4898440664914219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.961670220907706</v>
+        <v>1.659284418908328</v>
       </c>
       <c r="C15">
-        <v>0.6769204405885887</v>
+        <v>0.314318779064493</v>
       </c>
       <c r="D15">
-        <v>0.1087168919305412</v>
+        <v>0.1836852788127032</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4027731836207238</v>
+        <v>0.2225090790389004</v>
       </c>
       <c r="G15">
-        <v>0.2634079500926987</v>
+        <v>0.1096515401058689</v>
       </c>
       <c r="H15">
-        <v>0.1630083148532435</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.06566025282392829</v>
+        <v>0.005049268129914353</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1474388818219268</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1190994801549046</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.031298741714579</v>
+        <v>1.834332251999314</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8528588842989393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4908822947401674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.786915833290664</v>
+        <v>1.556975830063038</v>
       </c>
       <c r="C16">
-        <v>0.6418400472110477</v>
+        <v>0.2994582854160655</v>
       </c>
       <c r="D16">
-        <v>0.1020883962264918</v>
+        <v>0.1729325432206963</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3792307521604883</v>
+        <v>0.2187847926756987</v>
       </c>
       <c r="G16">
-        <v>0.2464541168471186</v>
+        <v>0.1110587343869192</v>
       </c>
       <c r="H16">
-        <v>0.1590343043411622</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.06686267060145212</v>
+        <v>0.004336036971513302</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1512039312386548</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1248102342834132</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.622362442061998</v>
+        <v>1.725634758096817</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8083633398250925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5015764994352452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.679498049311576</v>
+        <v>1.494167211015736</v>
       </c>
       <c r="C17">
-        <v>0.620239180409186</v>
+        <v>0.290385121725194</v>
       </c>
       <c r="D17">
-        <v>0.09801827878018798</v>
+        <v>0.1663439726142286</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3651540146420587</v>
+        <v>0.2166730099154996</v>
       </c>
       <c r="G17">
-        <v>0.2363964320671528</v>
+        <v>0.1120722945974286</v>
       </c>
       <c r="H17">
-        <v>0.1567760330518553</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.06785574008156203</v>
+        <v>0.003954088692026403</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1536062229797075</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1284223367278265</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.380142822996362</v>
+        <v>1.658979056304247</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7821683323374771</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5086478809751398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.617642009731981</v>
+        <v>1.459085753535078</v>
       </c>
       <c r="C18">
-        <v>0.6077883567708398</v>
+        <v>0.2838699591143978</v>
       </c>
       <c r="D18">
-        <v>0.09567595002414464</v>
+        <v>0.1623008379279867</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3571839381889461</v>
+        <v>0.2162222043184023</v>
       </c>
       <c r="G18">
-        <v>0.230729587452231</v>
+        <v>0.1132245171038484</v>
       </c>
       <c r="H18">
-        <v>0.1555400067008677</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.06851585290708506</v>
+        <v>0.003517916352471673</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1553036466259563</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1307958126195823</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.243618651193074</v>
+        <v>1.619406610329435</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7674829755876402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5145830629209058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.596686678439823</v>
+        <v>1.44638495151716</v>
       </c>
       <c r="C19">
-        <v>0.603568401814357</v>
+        <v>0.2826776453130009</v>
       </c>
       <c r="D19">
-        <v>0.09488265884699842</v>
+        <v>0.1611298935993091</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3545064177741466</v>
+        <v>0.2155382736148219</v>
       </c>
       <c r="G19">
-        <v>0.2288304550911207</v>
+        <v>0.1132257307380051</v>
       </c>
       <c r="H19">
-        <v>0.1551320229215989</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.06875418490668395</v>
+        <v>0.003552304084141866</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1556661674034814</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1314077043503694</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.197840888414646</v>
+        <v>1.606966756281253</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7625741440440947</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.5153231914928966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.690940437995323</v>
+        <v>1.500938586633993</v>
       </c>
       <c r="C20">
-        <v>0.6225414399316946</v>
+        <v>0.2912462549831218</v>
       </c>
       <c r="D20">
-        <v>0.09845168611300892</v>
+        <v>0.1670249314364298</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3666392440188062</v>
+        <v>0.2169464194941604</v>
       </c>
       <c r="G20">
-        <v>0.2374546977454131</v>
+        <v>0.1119991879282267</v>
       </c>
       <c r="H20">
-        <v>0.157009854391255</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.06774071569761375</v>
+        <v>0.003973912946911184</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1533691200958671</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1280537482189263</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.405630300776465</v>
+        <v>1.66597626643744</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.784916861244767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.5080079830142097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.006717583598174</v>
+        <v>1.684977939336846</v>
       </c>
       <c r="C21">
-        <v>0.6859500532235074</v>
+        <v>0.3190425938479251</v>
       </c>
       <c r="D21">
-        <v>0.1104270015276967</v>
+        <v>0.186634600041188</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4089713128208956</v>
+        <v>0.2230630517717032</v>
       </c>
       <c r="G21">
-        <v>0.2678980186127689</v>
+        <v>0.108997678867226</v>
       </c>
       <c r="H21">
-        <v>0.1640925792904966</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.06543305983508141</v>
+        <v>0.005395814827637402</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1463117341681404</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1174940431992129</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.139902622818326</v>
+        <v>1.863232981933777</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8647076454378464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.4871796901404366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.212314274351854</v>
+        <v>1.806639269605995</v>
       </c>
       <c r="C22">
-        <v>0.7270852966193786</v>
+        <v>0.3354930738607891</v>
       </c>
       <c r="D22">
-        <v>0.1182399084973014</v>
+        <v>0.1991153201140463</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4379422248139875</v>
+        <v>0.2286413573969952</v>
       </c>
       <c r="G22">
-        <v>0.289025165344853</v>
+        <v>0.1082742436295838</v>
       </c>
       <c r="H22">
-        <v>0.169351868773731</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.06482799174192877</v>
+        <v>0.006205627867752028</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.142406218860657</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1113143898002509</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.65378074488018</v>
+        <v>1.990497091916751</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9207794101316722</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.4776680601887904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.102663603492942</v>
+        <v>1.74315642757864</v>
       </c>
       <c r="C23">
-        <v>0.7051627139001369</v>
+        <v>0.3249270851296728</v>
       </c>
       <c r="D23">
-        <v>0.1140714049911935</v>
+        <v>0.1921046328697855</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4223510756055902</v>
+        <v>0.226548682426511</v>
       </c>
       <c r="G23">
-        <v>0.2776270171048765</v>
+        <v>0.1093001202434536</v>
       </c>
       <c r="H23">
-        <v>0.1664834910874617</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0650623502618668</v>
+        <v>0.005484024113511232</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1448358576234057</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1149154580791931</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.375877970070903</v>
+        <v>1.920879537947513</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8904656669762119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.484824918852155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.685767644628925</v>
+        <v>1.500128820596444</v>
       </c>
       <c r="C24">
-        <v>0.621500688012901</v>
+        <v>0.2880857763187095</v>
       </c>
       <c r="D24">
-        <v>0.09825575000422759</v>
+        <v>0.1661748254859248</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3659673911031547</v>
+        <v>0.2183095473679408</v>
       </c>
       <c r="G24">
-        <v>0.2369758980959773</v>
+        <v>0.11312486386446</v>
       </c>
       <c r="H24">
-        <v>0.1569039505045779</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0677924415957758</v>
+        <v>0.003505310199751754</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1540737290518628</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1287658242340868</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.394098995371451</v>
+        <v>1.660183880813321</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7836730903631803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.5118659516863886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.233337836625878</v>
+        <v>1.237365341710102</v>
       </c>
       <c r="C25">
-        <v>0.5302579038719273</v>
+        <v>0.2488013295080123</v>
       </c>
       <c r="D25">
-        <v>0.08114582288648364</v>
+        <v>0.13828069694992</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3099101227282404</v>
+        <v>0.211831323423965</v>
       </c>
       <c r="G25">
-        <v>0.1975680312675721</v>
+        <v>0.1193359226442681</v>
       </c>
       <c r="H25">
-        <v>0.1489444543557923</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.07409170398850229</v>
+        <v>0.002009189640912901</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1653394287369068</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1452283714606653</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.439446701626764</v>
+        <v>1.379152360262054</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6828403623549946</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.5481575921520161</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.046608864674596</v>
+        <v>1.048360217896771</v>
       </c>
       <c r="C2">
-        <v>0.2160122539503249</v>
+        <v>0.2096618923668672</v>
       </c>
       <c r="D2">
-        <v>0.1169503079651264</v>
+        <v>0.1172463605849714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2112498711621953</v>
+        <v>0.2089252575448306</v>
       </c>
       <c r="G2">
-        <v>0.1272521275028602</v>
+        <v>0.1094179246572082</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0007438948922033894</v>
+        <v>0.0009966248999164762</v>
       </c>
       <c r="J2">
-        <v>0.1756348528525926</v>
+        <v>0.2078909339728199</v>
       </c>
       <c r="K2">
-        <v>0.1594867744155328</v>
+        <v>0.1543320795505183</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09677442836049455</v>
       </c>
       <c r="M2">
-        <v>1.168128150940504</v>
+        <v>0.03041608472934709</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.169494777180915</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.5861385324667978</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.5784107702949584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9148147825166291</v>
+        <v>0.9191137077725102</v>
       </c>
       <c r="C3">
-        <v>0.1963649711016728</v>
+        <v>0.1870028030676991</v>
       </c>
       <c r="D3">
-        <v>0.102975778254347</v>
+        <v>0.1027204492952905</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.210571606484141</v>
+        <v>0.2088673448449185</v>
       </c>
       <c r="G3">
-        <v>0.1325331466266455</v>
+        <v>0.1150612031200104</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0004728880303717098</v>
+        <v>0.0006660006684890973</v>
       </c>
       <c r="J3">
-        <v>0.1826758288911563</v>
+        <v>0.2134636567466437</v>
       </c>
       <c r="K3">
-        <v>0.1693394530722747</v>
+        <v>0.1635131461633286</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1016443806709191</v>
       </c>
       <c r="M3">
-        <v>1.027237733993474</v>
+        <v>0.03381583034145774</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.026619195947461</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.6118202705831735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.604357315977083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8335528812816904</v>
+        <v>0.8393337490575732</v>
       </c>
       <c r="C4">
-        <v>0.1844336091088365</v>
+        <v>0.1733144090325283</v>
       </c>
       <c r="D4">
-        <v>0.09440631995619242</v>
+        <v>0.09382819070609116</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2106009436598164</v>
+        <v>0.2092026888697767</v>
       </c>
       <c r="G4">
-        <v>0.1361640201564533</v>
+        <v>0.1189150627152671</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.000426947579393655</v>
+        <v>0.0005660810871019883</v>
       </c>
       <c r="J4">
-        <v>0.1872696829544118</v>
+        <v>0.217037350023876</v>
       </c>
       <c r="K4">
-        <v>0.1757045006054208</v>
+        <v>0.1694198511213765</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1049528829069484</v>
       </c>
       <c r="M4">
-        <v>0.9406684848216287</v>
+        <v>0.03629105621941564</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9388919225101233</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.6289726825599544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6214635629080263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7999994171656795</v>
+        <v>0.806369095304575</v>
       </c>
       <c r="C5">
-        <v>0.1800248666745574</v>
+        <v>0.168202273479821</v>
       </c>
       <c r="D5">
-        <v>0.09100013552178865</v>
+        <v>0.09029271132462213</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2104742339030246</v>
+        <v>0.2091849164871249</v>
       </c>
       <c r="G5">
-        <v>0.1375511876943776</v>
+        <v>0.1203980638467073</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005018402565899471</v>
+        <v>0.0006272415690506961</v>
       </c>
       <c r="J5">
-        <v>0.1891038494352379</v>
+        <v>0.2184207862931764</v>
       </c>
       <c r="K5">
-        <v>0.1782705340277491</v>
+        <v>0.1717868544824364</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1062918275688194</v>
       </c>
       <c r="M5">
-        <v>0.9057756278526199</v>
+        <v>0.0374036277569838</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9035361182907309</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.6356851899995348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.628109612084792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7939923934246451</v>
+        <v>0.8004647408406242</v>
       </c>
       <c r="C6">
-        <v>0.1798137172005596</v>
+        <v>0.1678632513486775</v>
       </c>
       <c r="D6">
-        <v>0.09053753591376079</v>
+        <v>0.08980675964775742</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2101583170119881</v>
+        <v>0.2088893096765467</v>
       </c>
       <c r="G6">
-        <v>0.1375598118520145</v>
+        <v>0.1204291713089312</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.000602659317920029</v>
+        <v>0.0007421917277268264</v>
       </c>
       <c r="J6">
-        <v>0.1892850659399059</v>
+        <v>0.2185180646114873</v>
       </c>
       <c r="K6">
-        <v>0.1785738475363798</v>
+        <v>0.1720554065117241</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1064111516542763</v>
       </c>
       <c r="M6">
-        <v>0.9004769516446345</v>
+        <v>0.03760265567533283</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8981527699214098</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.6360709138824063</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.6284859430021541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8319222345049866</v>
+        <v>0.8378452881047167</v>
       </c>
       <c r="C7">
-        <v>0.1857953774113099</v>
+        <v>0.1744385190191196</v>
       </c>
       <c r="D7">
-        <v>0.0946422297112619</v>
+        <v>0.09422484974833623</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2097772060189946</v>
+        <v>0.207924846972606</v>
       </c>
       <c r="G7">
-        <v>0.1355633500438422</v>
+        <v>0.1194099449166437</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0006499167166067465</v>
+        <v>0.0008314354542990898</v>
       </c>
       <c r="J7">
-        <v>0.1869483251801611</v>
+        <v>0.2149591979209511</v>
       </c>
       <c r="K7">
-        <v>0.1753939418224899</v>
+        <v>0.1689876615835129</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1045950301277596</v>
       </c>
       <c r="M7">
-        <v>0.9415593372304443</v>
+        <v>0.03632172654324894</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.939537991991557</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.627024190952433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.618408418595024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9996620175164139</v>
+        <v>1.002728811128691</v>
       </c>
       <c r="C8">
-        <v>0.2111115474513809</v>
+        <v>0.2030159223053545</v>
       </c>
       <c r="D8">
-        <v>0.1125058844248485</v>
+        <v>0.1131689724752789</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2098410029544198</v>
+        <v>0.2062356562475038</v>
       </c>
       <c r="G8">
-        <v>0.1281812532869502</v>
+        <v>0.114099293548783</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0008918312444148313</v>
+        <v>0.001178049557526428</v>
       </c>
       <c r="J8">
-        <v>0.1775570043675678</v>
+        <v>0.2038913992054994</v>
       </c>
       <c r="K8">
-        <v>0.1623781976241494</v>
+        <v>0.1566531676699445</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09784317117013419</v>
       </c>
       <c r="M8">
-        <v>1.121381802271742</v>
+        <v>0.03143961454978386</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.121306571950385</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.5920442684548348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.5808652983246745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.32813896832107</v>
+        <v>1.32445780836801</v>
       </c>
       <c r="C9">
-        <v>0.2593447116136929</v>
+        <v>0.2591243917974708</v>
       </c>
       <c r="D9">
-        <v>0.1471508810322462</v>
+        <v>0.1494524424129509</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2151576755840026</v>
+        <v>0.2091574034403578</v>
       </c>
       <c r="G9">
-        <v>0.1180534039924268</v>
+        <v>0.1040160835556705</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.00205868423574973</v>
+        <v>0.002329905154912382</v>
       </c>
       <c r="J9">
-        <v>0.1619657128795708</v>
+        <v>0.1899434077500608</v>
       </c>
       <c r="K9">
-        <v>0.1400413680594799</v>
+        <v>0.135676992004921</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0878684683129034</v>
       </c>
       <c r="M9">
-        <v>1.471304146654887</v>
+        <v>0.02501887771886668</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.476305395656226</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.5385355947982688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.52459053313369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.567469104802285</v>
+        <v>1.559094468355482</v>
       </c>
       <c r="C10">
-        <v>0.2964097555253744</v>
+        <v>0.3012330959101064</v>
       </c>
       <c r="D10">
-        <v>0.1728839179084503</v>
+        <v>0.1774991780162907</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2212276843704117</v>
+        <v>0.2104442913118802</v>
       </c>
       <c r="G10">
-        <v>0.1125624890230803</v>
+        <v>0.1051634905768921</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.00376415214051562</v>
+        <v>0.003920186728545438</v>
       </c>
       <c r="J10">
-        <v>0.1518139813651977</v>
+        <v>0.1725129864093802</v>
       </c>
       <c r="K10">
-        <v>0.1252078031434953</v>
+        <v>0.1211102342651085</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08191707170156559</v>
       </c>
       <c r="M10">
-        <v>1.729357338281062</v>
+        <v>0.02194813000560991</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.737012841792961</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.506055980245911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.4829658878267509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.67409618514472</v>
+        <v>1.664807690920526</v>
       </c>
       <c r="C11">
-        <v>0.3159557074174302</v>
+        <v>0.3210336191341696</v>
       </c>
       <c r="D11">
-        <v>0.1851128021646247</v>
+        <v>0.1926655937793811</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2233103956265978</v>
+        <v>0.205746193900751</v>
       </c>
       <c r="G11">
-        <v>0.1096585904674647</v>
+        <v>0.1179680207944216</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.005083717125281773</v>
+        <v>0.005209743554599022</v>
       </c>
       <c r="J11">
-        <v>0.1470210904761977</v>
+        <v>0.1556082854916241</v>
       </c>
       <c r="K11">
-        <v>0.1183998713774779</v>
+        <v>0.1136819015516823</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07932631361700665</v>
       </c>
       <c r="M11">
-        <v>1.849234678749497</v>
+        <v>0.02031318977206986</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.855839051342201</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.4900467624240221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.4525416403197013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.715495268706263</v>
+        <v>1.705997075118631</v>
       </c>
       <c r="C12">
-        <v>0.3221016203335267</v>
+        <v>0.3269960888272863</v>
       </c>
       <c r="D12">
-        <v>0.1894972898762433</v>
+        <v>0.198417890610628</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2248890570591655</v>
+        <v>0.2041366521388355</v>
       </c>
       <c r="G12">
-        <v>0.1091534441950088</v>
+        <v>0.1255889656233862</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.005424890302249352</v>
+        <v>0.005487413749059478</v>
       </c>
       <c r="J12">
-        <v>0.1455361130808193</v>
+        <v>0.1504071475036204</v>
       </c>
       <c r="K12">
-        <v>0.1161382348823121</v>
+        <v>0.1110571252907566</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0784842726809441</v>
       </c>
       <c r="M12">
-        <v>1.893429764065587</v>
+        <v>0.01977407437749168</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.899369549278703</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.485935443502882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.4415955453702978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.706793438321313</v>
+        <v>1.697328406134346</v>
       </c>
       <c r="C13">
-        <v>0.3205143800891364</v>
+        <v>0.3254578681280549</v>
       </c>
       <c r="D13">
-        <v>0.1885014423586711</v>
+        <v>0.1971153389555838</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2246839305848241</v>
+        <v>0.2046332616031457</v>
       </c>
       <c r="G13">
-        <v>0.1093603559908374</v>
+        <v>0.1239519400935336</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.005309567521146974</v>
+        <v>0.005376800346283517</v>
       </c>
       <c r="J13">
-        <v>0.1459090730786059</v>
+        <v>0.1514606008988784</v>
       </c>
       <c r="K13">
-        <v>0.1166725737292627</v>
+        <v>0.1116584874278348</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07867046722285673</v>
       </c>
       <c r="M13">
-        <v>1.883661501174998</v>
+        <v>0.01991041521030468</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.889760736193438</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.4871403322949561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.444284619686286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.677593088477465</v>
+        <v>1.668282093261496</v>
       </c>
       <c r="C14">
-        <v>0.3163493505126809</v>
+        <v>0.3214163983915626</v>
       </c>
       <c r="D14">
-        <v>0.1854516128477002</v>
+        <v>0.1931115789257944</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2234974914010195</v>
+        <v>0.2056784150595377</v>
       </c>
       <c r="G14">
-        <v>0.1096586592858344</v>
+        <v>0.1185938255490697</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.005093677361844406</v>
+        <v>0.005210634704786443</v>
       </c>
       <c r="J14">
-        <v>0.1469214754838966</v>
+        <v>0.1551561876600474</v>
       </c>
       <c r="K14">
-        <v>0.1182338652154629</v>
+        <v>0.1134818512662568</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07925950281276638</v>
       </c>
       <c r="M14">
-        <v>1.852764445899425</v>
+        <v>0.0202773717319662</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.85932137133625</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.4898440664914219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4517848028002618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.659284418908328</v>
+        <v>1.650098071777506</v>
       </c>
       <c r="C15">
-        <v>0.314318779064493</v>
+        <v>0.3194324054681204</v>
       </c>
       <c r="D15">
-        <v>0.1836852788127032</v>
+        <v>0.190795138542498</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2225090790389004</v>
+        <v>0.2059992553535004</v>
       </c>
       <c r="G15">
-        <v>0.1096515401058689</v>
+        <v>0.1154089629615385</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.005049268129914353</v>
+        <v>0.005214667290708519</v>
       </c>
       <c r="J15">
-        <v>0.1474388818219268</v>
+        <v>0.1575666912306311</v>
       </c>
       <c r="K15">
-        <v>0.1190994801549046</v>
+        <v>0.1145225013513449</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07960980129254266</v>
       </c>
       <c r="M15">
-        <v>1.834332251999314</v>
+        <v>0.02046242250630659</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.841125444192215</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.4908822947401674</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4556708509825214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.556975830063038</v>
+        <v>1.548756133325384</v>
       </c>
       <c r="C16">
-        <v>0.2994582854160655</v>
+        <v>0.3042840407753431</v>
       </c>
       <c r="D16">
-        <v>0.1729325432206963</v>
+        <v>0.1773859697789106</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2187847926756987</v>
+        <v>0.208488546387386</v>
       </c>
       <c r="G16">
-        <v>0.1110587343869192</v>
+        <v>0.1028675732094939</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.004336036971513302</v>
+        <v>0.004641414791163534</v>
       </c>
       <c r="J16">
-        <v>0.1512039312386548</v>
+        <v>0.1729293238975167</v>
       </c>
       <c r="K16">
-        <v>0.1248102342834132</v>
+        <v>0.120899401796926</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08186333457795736</v>
       </c>
       <c r="M16">
-        <v>1.725634758096817</v>
+        <v>0.02174517980897139</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.733264897915774</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5015764994352452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4797004766201809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.494167211015736</v>
+        <v>1.486798338954003</v>
       </c>
       <c r="C17">
-        <v>0.290385121725194</v>
+        <v>0.2945833248804206</v>
       </c>
       <c r="D17">
-        <v>0.1663439726142286</v>
+        <v>0.1695877001651951</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2166730099154996</v>
+        <v>0.2091739988418873</v>
       </c>
       <c r="G17">
-        <v>0.1120722945974286</v>
+        <v>0.09843531504554903</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.003954088692026403</v>
+        <v>0.004330667523803733</v>
       </c>
       <c r="J17">
-        <v>0.1536062229797075</v>
+        <v>0.181772596330692</v>
       </c>
       <c r="K17">
-        <v>0.1284223367278265</v>
+        <v>0.1247509405970235</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08333131881280376</v>
       </c>
       <c r="M17">
-        <v>1.658979056304247</v>
+        <v>0.02252861821523133</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.666638651542399</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.5086478809751398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.492711695988973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.459085753535078</v>
+        <v>1.452272216823246</v>
       </c>
       <c r="C18">
-        <v>0.2838699591143978</v>
+        <v>0.2875317267033495</v>
       </c>
       <c r="D18">
-        <v>0.1623008379279867</v>
+        <v>0.1649960178092158</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2162222043184023</v>
+        <v>0.2099417025994228</v>
       </c>
       <c r="G18">
-        <v>0.1132245171038484</v>
+        <v>0.09739102388762433</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.003517916352471673</v>
+        <v>0.003878178810708732</v>
       </c>
       <c r="J18">
-        <v>0.1553036466259563</v>
+        <v>0.1863942504651774</v>
       </c>
       <c r="K18">
-        <v>0.1307958126195823</v>
+        <v>0.1271598866437236</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08428420334607045</v>
       </c>
       <c r="M18">
-        <v>1.619406610329435</v>
+        <v>0.02306896717951723</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.626929245178587</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.5145830629209058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5011492439361476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.44638495151716</v>
+        <v>1.439790922187655</v>
       </c>
       <c r="C19">
-        <v>0.2826776453130009</v>
+        <v>0.2861439921837672</v>
       </c>
       <c r="D19">
-        <v>0.1611298935993091</v>
+        <v>0.1636614499755211</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2155382736148219</v>
+        <v>0.2096317825003204</v>
       </c>
       <c r="G19">
-        <v>0.1132257307380051</v>
+        <v>0.09681513830597765</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.003552304084141866</v>
+        <v>0.003945870729999967</v>
       </c>
       <c r="J19">
-        <v>0.1556661674034814</v>
+        <v>0.1875976135540895</v>
       </c>
       <c r="K19">
-        <v>0.1314077043503694</v>
+        <v>0.1277998143956274</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08454309856811415</v>
       </c>
       <c r="M19">
-        <v>1.606966756281253</v>
+        <v>0.02318708072360032</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.614401659158716</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.5153231914928966</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.5026737320403427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.500938586633993</v>
+        <v>1.493468150312253</v>
       </c>
       <c r="C20">
-        <v>0.2912462549831218</v>
+        <v>0.2955265784480758</v>
       </c>
       <c r="D20">
-        <v>0.1670249314364298</v>
+        <v>0.1703824005292347</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2169464194941604</v>
+        <v>0.2091849025647718</v>
       </c>
       <c r="G20">
-        <v>0.1119991879282267</v>
+        <v>0.09883818658196475</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.003973912946911184</v>
+        <v>0.00433926341677271</v>
       </c>
       <c r="J20">
-        <v>0.1533691200958671</v>
+        <v>0.1809168407661979</v>
       </c>
       <c r="K20">
-        <v>0.1280537482189263</v>
+        <v>0.1243605953557325</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08317888520022221</v>
       </c>
       <c r="M20">
-        <v>1.66597626643744</v>
+        <v>0.02245177578975799</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.673651870384106</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.5080079830142097</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.4915157908064813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.684977939336846</v>
+        <v>1.676100070401759</v>
       </c>
       <c r="C21">
-        <v>0.3190425938479251</v>
+        <v>0.3233294733751393</v>
       </c>
       <c r="D21">
-        <v>0.186634600041188</v>
+        <v>0.1952301188099312</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2230630517717032</v>
+        <v>0.2030544028937733</v>
       </c>
       <c r="G21">
-        <v>0.108997678867226</v>
+        <v>0.1242267376593205</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.005395814827637402</v>
+        <v>0.005543184987553573</v>
       </c>
       <c r="J21">
-        <v>0.1463117341681404</v>
+        <v>0.1519146367991624</v>
       </c>
       <c r="K21">
-        <v>0.1174940431992129</v>
+        <v>0.1124688390295034</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07896412958783694</v>
       </c>
       <c r="M21">
-        <v>1.863232981933777</v>
+        <v>0.01991507388274538</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.868852598528349</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.4871796901404366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.4443820897643889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.806639269605995</v>
+        <v>1.796988620025076</v>
       </c>
       <c r="C22">
-        <v>0.3354930738607891</v>
+        <v>0.339494846960946</v>
       </c>
       <c r="D22">
-        <v>0.1991153201140463</v>
+        <v>0.211535417435158</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2286413573969952</v>
+        <v>0.1998044779270067</v>
       </c>
       <c r="G22">
-        <v>0.1082742436295838</v>
+        <v>0.1474277485507685</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.006205627867752028</v>
+        <v>0.006105534496635201</v>
       </c>
       <c r="J22">
-        <v>0.142406218860657</v>
+        <v>0.1438534697376701</v>
       </c>
       <c r="K22">
-        <v>0.1113143898002509</v>
+        <v>0.1053087484972344</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07680225005468033</v>
       </c>
       <c r="M22">
-        <v>1.990497091916751</v>
+        <v>0.01856735441060398</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.994453408040897</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.4776680601887904</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.4160944721513573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.74315642757864</v>
+        <v>1.733549550648092</v>
       </c>
       <c r="C23">
-        <v>0.3249270851296728</v>
+        <v>0.3296192022933724</v>
       </c>
       <c r="D23">
-        <v>0.1921046328697855</v>
+        <v>0.2019806498733061</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.226548682426511</v>
+        <v>0.2035209640898685</v>
       </c>
       <c r="G23">
-        <v>0.1093001202434536</v>
+        <v>0.1317714405148322</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.005484024113511232</v>
+        <v>0.005463211184536299</v>
       </c>
       <c r="J23">
-        <v>0.1448358576234057</v>
+        <v>0.1477183959535071</v>
       </c>
       <c r="K23">
-        <v>0.1149154580791931</v>
+        <v>0.1095118704945133</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07799657978239016</v>
       </c>
       <c r="M23">
-        <v>1.920879537947513</v>
+        <v>0.01950744965363693</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.926325532440643</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.484824918852155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.4355296722016178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.500128820596444</v>
+        <v>1.492657062392311</v>
       </c>
       <c r="C24">
-        <v>0.2880857763187095</v>
+        <v>0.2922936940697696</v>
       </c>
       <c r="D24">
-        <v>0.1661748254859248</v>
+        <v>0.1694847755932614</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2183095473679408</v>
+        <v>0.2106012461320148</v>
       </c>
       <c r="G24">
-        <v>0.11312486386446</v>
+        <v>0.09971817916008519</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.003505310199751754</v>
+        <v>0.003773002389862334</v>
       </c>
       <c r="J24">
-        <v>0.1540737290518628</v>
+        <v>0.1818308274349647</v>
       </c>
       <c r="K24">
-        <v>0.1287658242340868</v>
+        <v>0.1249989942965328</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08341939136102505</v>
       </c>
       <c r="M24">
-        <v>1.660183880813321</v>
+        <v>0.02267448563932195</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.667888041436896</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.5118659516863886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.4953966278274606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.237365341710102</v>
+        <v>1.235457746180344</v>
       </c>
       <c r="C25">
-        <v>0.2488013295080123</v>
+        <v>0.2466742564576805</v>
       </c>
       <c r="D25">
-        <v>0.13828069694992</v>
+        <v>0.1398727028846878</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.211831323423965</v>
+        <v>0.2072493575874539</v>
       </c>
       <c r="G25">
-        <v>0.1193359226442681</v>
+        <v>0.1037634797750648</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.002009189640912901</v>
+        <v>0.002389305121453411</v>
       </c>
       <c r="J25">
-        <v>0.1653394287369068</v>
+        <v>0.1952056753954139</v>
       </c>
       <c r="K25">
-        <v>0.1452283714606653</v>
+        <v>0.1407377696129561</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09010370635341314</v>
       </c>
       <c r="M25">
-        <v>1.379152360262054</v>
+        <v>0.02632511136745697</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.383011637520752</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.5481575921520161</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.5368438705671466</v>
       </c>
     </row>
   </sheetData>
